--- a/1_calculation_scripts/1_3_krypton/results/mie_results_vle_visc_fluid.xlsx
+++ b/1_calculation_scripts/1_3_krypton/results/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8454215694785212</v>
       </c>
       <c r="D2">
-        <v>216.9000622266862</v>
+        <v>216.9000622266856</v>
       </c>
       <c r="E2">
-        <v>6862166.805487043</v>
+        <v>6862166.805486937</v>
       </c>
       <c r="F2">
-        <v>11177.33189401658</v>
+        <v>11177.33189401646</v>
       </c>
       <c r="G2">
         <v>3.676797337742965</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>67.76636112096183</v>
       </c>
@@ -585,18 +597,24 @@
         <v>0.09361343095535485</v>
       </c>
       <c r="M2">
+        <v>0.09361343095535485</v>
+      </c>
+      <c r="N2">
         <v>1008.246577881892</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>69.27274023313458</v>
+        <v>69.27274023313457</v>
       </c>
       <c r="B3">
-        <v>45.38267366914038</v>
+        <v>45.38267366914022</v>
       </c>
       <c r="C3">
-        <v>0.07879829109120612</v>
+        <v>0.07879829109120585</v>
       </c>
       <c r="D3">
         <v>34866.36721233863</v>
@@ -605,39 +623,45 @@
         <v>12338.32944726554</v>
       </c>
       <c r="F3">
-        <v>11762.39600409835</v>
+        <v>11762.39600409834</v>
       </c>
       <c r="G3">
-        <v>49.91622900064359</v>
+        <v>49.9162290006436</v>
       </c>
       <c r="H3">
-        <v>149.7476769900728</v>
+        <v>149.7476769900729</v>
       </c>
       <c r="I3">
-        <v>1.021774262569044E-09</v>
+        <v>1.021774262569045E-09</v>
       </c>
       <c r="J3">
         <v>4.12333960997636E-10</v>
       </c>
       <c r="K3">
-        <v>0.001737411381623258</v>
+        <v>0.001737411381623257</v>
       </c>
       <c r="L3">
         <v>0.09295619943645136</v>
       </c>
       <c r="M3">
-        <v>956.8797365434019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.09295619943645136</v>
+      </c>
+      <c r="N3">
+        <v>956.8797365434016</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>70.77911934530732</v>
       </c>
       <c r="B4">
-        <v>71.30763341975245</v>
+        <v>71.30763341975221</v>
       </c>
       <c r="C4">
-        <v>0.121180049525425</v>
+        <v>0.1211800495254246</v>
       </c>
       <c r="D4">
         <v>34486.06972004691</v>
@@ -649,10 +673,10 @@
         <v>11529.2647535227</v>
       </c>
       <c r="G4">
-        <v>51.7714768796523</v>
+        <v>51.77147687965239</v>
       </c>
       <c r="H4">
-        <v>142.9930027332628</v>
+        <v>142.993002733263</v>
       </c>
       <c r="I4">
         <v>1.041734858822589E-09</v>
@@ -667,36 +691,42 @@
         <v>0.0924013537575703</v>
       </c>
       <c r="M4">
-        <v>920.2346006052712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.0924013537575703</v>
+      </c>
+      <c r="N4">
+        <v>920.2346006052711</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>72.28549845748007</v>
+        <v>72.28549845748006</v>
       </c>
       <c r="B5">
-        <v>109.1176827250117</v>
+        <v>109.1176827250093</v>
       </c>
       <c r="C5">
-        <v>0.1815764336341289</v>
+        <v>0.1815764336341249</v>
       </c>
       <c r="D5">
         <v>34127.22657803998</v>
       </c>
       <c r="E5">
-        <v>11907.70360672601</v>
+        <v>11907.70360672602</v>
       </c>
       <c r="F5">
-        <v>11306.76052191849</v>
+        <v>11306.7605219185</v>
       </c>
       <c r="G5">
-        <v>52.15366917346041</v>
+        <v>52.15366917346032</v>
       </c>
       <c r="H5">
         <v>135.6726413869322</v>
       </c>
       <c r="I5">
-        <v>1.061482385907214E-09</v>
+        <v>1.061482385907215E-09</v>
       </c>
       <c r="J5">
         <v>4.388711243789251E-10</v>
@@ -705,15 +735,21 @@
         <v>0.001744761315943332</v>
       </c>
       <c r="L5">
-        <v>0.0919422735125266</v>
+        <v>0.09194227351252658</v>
       </c>
       <c r="M5">
-        <v>893.0479458969473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.09194227351252658</v>
+      </c>
+      <c r="N5">
+        <v>893.0479458969476</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>73.79187756965283</v>
+        <v>73.7918775696528</v>
       </c>
       <c r="B6">
         <v>162.9679021611092</v>
@@ -722,66 +758,72 @@
         <v>0.2656620152773894</v>
       </c>
       <c r="D6">
-        <v>33787.9798098477</v>
+        <v>33787.97980984771</v>
       </c>
       <c r="E6">
-        <v>11708.96369011585</v>
+        <v>11708.96369011587</v>
       </c>
       <c r="F6">
-        <v>11095.52777743352</v>
+        <v>11095.52777743353</v>
       </c>
       <c r="G6">
-        <v>51.42936649785813</v>
+        <v>51.42936649785825</v>
       </c>
       <c r="H6">
-        <v>128.0497189776731</v>
+        <v>128.0497189776733</v>
       </c>
       <c r="I6">
-        <v>1.081090655235293E-09</v>
+        <v>1.081090655235291E-09</v>
       </c>
       <c r="J6">
-        <v>4.530788586310672E-10</v>
+        <v>4.530788586310675E-10</v>
       </c>
       <c r="K6">
         <v>0.001736960665826692</v>
       </c>
       <c r="L6">
-        <v>0.09157283423034981</v>
+        <v>0.09157283423034984</v>
       </c>
       <c r="M6">
-        <v>872.3098654835416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.09157283423034984</v>
+      </c>
+      <c r="N6">
+        <v>872.3098654835422</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>75.29825668182558</v>
+        <v>75.29825668182553</v>
       </c>
       <c r="B7">
-        <v>238.0204848232202</v>
+        <v>238.020484823217</v>
       </c>
       <c r="C7">
-        <v>0.3802700581255411</v>
+        <v>0.380270058125536</v>
       </c>
       <c r="D7">
-        <v>33466.64706888949</v>
+        <v>33466.6470688895</v>
       </c>
       <c r="E7">
-        <v>11521.77106344473</v>
+        <v>11521.77106344472</v>
       </c>
       <c r="F7">
-        <v>10895.85331054223</v>
+        <v>10895.85331054222</v>
       </c>
       <c r="G7">
-        <v>49.90125477760381</v>
+        <v>49.9012547776037</v>
       </c>
       <c r="H7">
-        <v>120.3361965123867</v>
+        <v>120.3361965123868</v>
       </c>
       <c r="I7">
         <v>1.100633610264115E-09</v>
       </c>
       <c r="J7">
-        <v>4.679975251595902E-10</v>
+        <v>4.679975251595901E-10</v>
       </c>
       <c r="K7">
         <v>0.001721088230648672</v>
@@ -790,100 +832,118 @@
         <v>0.09128703088992522</v>
       </c>
       <c r="M7">
-        <v>856.1610230724342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.09128703088992522</v>
+      </c>
+      <c r="N7">
+        <v>856.1610230724355</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>76.80463579399833</v>
+        <v>76.80463579399829</v>
       </c>
       <c r="B8">
-        <v>340.5772352768172</v>
+        <v>340.5772352768145</v>
       </c>
       <c r="C8">
-        <v>0.5334888622024228</v>
+        <v>0.5334888622024189</v>
       </c>
       <c r="D8">
-        <v>33161.70266455737</v>
+        <v>33161.70266455738</v>
       </c>
       <c r="E8">
-        <v>11346.12537038305</v>
+        <v>11346.12537038306</v>
       </c>
       <c r="F8">
-        <v>10707.7394912801</v>
+        <v>10707.73949128011</v>
       </c>
       <c r="G8">
-        <v>47.81499305275116</v>
+        <v>47.81499305275113</v>
       </c>
       <c r="H8">
-        <v>112.6980835569903</v>
+        <v>112.6980835569905</v>
       </c>
       <c r="I8">
-        <v>1.120184776819413E-09</v>
+        <v>1.120184776819411E-09</v>
       </c>
       <c r="J8">
-        <v>4.836955514008247E-10</v>
+        <v>4.836955514008246E-10</v>
       </c>
       <c r="K8">
         <v>0.001696966721286628</v>
       </c>
       <c r="L8">
-        <v>0.09107864914084109</v>
+        <v>0.09107864914084114</v>
       </c>
       <c r="M8">
-        <v>843.3817853666067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.09107864914084114</v>
+      </c>
+      <c r="N8">
+        <v>843.381785366608</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>78.31101490617107</v>
+        <v>78.31101490617102</v>
       </c>
       <c r="B9">
-        <v>478.2115294574288</v>
+        <v>478.21152945743</v>
       </c>
       <c r="C9">
-        <v>0.7347472985984037</v>
+        <v>0.7347472985984058</v>
       </c>
       <c r="D9">
-        <v>32871.76088813209</v>
+        <v>32871.7608881321</v>
       </c>
       <c r="E9">
-        <v>11181.80618673641</v>
+        <v>11181.8061867364</v>
       </c>
       <c r="F9">
         <v>10530.96903297104</v>
       </c>
       <c r="G9">
-        <v>45.36656886431465</v>
+        <v>45.36656886431481</v>
       </c>
       <c r="H9">
-        <v>105.2613755675685</v>
+        <v>105.2613755675687</v>
       </c>
       <c r="I9">
-        <v>1.139816843579426E-09</v>
+        <v>1.139816843579424E-09</v>
       </c>
       <c r="J9">
-        <v>5.002453662254523E-10</v>
+        <v>5.002453662254513E-10</v>
       </c>
       <c r="K9">
-        <v>0.001664564910754213</v>
+        <v>0.001664564910754215</v>
       </c>
       <c r="L9">
-        <v>0.09094101313503256</v>
+        <v>0.09094101313503258</v>
       </c>
       <c r="M9">
-        <v>833.1317911874226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.09094101313503258</v>
+      </c>
+      <c r="N9">
+        <v>833.1317911874228</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>79.81739401834382</v>
+        <v>79.81739401834376</v>
       </c>
       <c r="B10">
-        <v>659.8981067762261</v>
+        <v>659.8981067762392</v>
       </c>
       <c r="C10">
-        <v>0.9948888722507823</v>
+        <v>0.9948888722508028</v>
       </c>
       <c r="D10">
         <v>32595.56132136654</v>
@@ -895,118 +955,136 @@
         <v>10365.1606523696</v>
       </c>
       <c r="G10">
-        <v>42.70958986146368</v>
+        <v>42.70958986146372</v>
       </c>
       <c r="H10">
-        <v>98.11811484115989</v>
+        <v>98.11811484115999</v>
       </c>
       <c r="I10">
-        <v>1.159601365449539E-09</v>
+        <v>1.159601365449541E-09</v>
       </c>
       <c r="J10">
-        <v>5.177235008641312E-10</v>
+        <v>5.177235008641307E-10</v>
       </c>
       <c r="K10">
         <v>0.001624034807886631</v>
       </c>
       <c r="L10">
-        <v>0.09086683337936299</v>
+        <v>0.09086683337936298</v>
       </c>
       <c r="M10">
-        <v>824.8071366303169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.09086683337936298</v>
+      </c>
+      <c r="N10">
+        <v>824.8071366303161</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>81.32377313051656</v>
+        <v>81.3237731305165</v>
       </c>
       <c r="B11">
-        <v>896.1392270855578</v>
+        <v>896.1392270855433</v>
       </c>
       <c r="C11">
-        <v>1.326234051495838</v>
+        <v>1.326234051495817</v>
       </c>
       <c r="D11">
-        <v>32331.95586383595</v>
+        <v>32331.95586383597</v>
       </c>
       <c r="E11">
-        <v>10885.49021494191</v>
+        <v>10885.4902149419</v>
       </c>
       <c r="F11">
-        <v>10209.81576130841</v>
+        <v>10209.8157613084</v>
       </c>
       <c r="G11">
-        <v>39.96214341078989</v>
+        <v>39.96214341079</v>
       </c>
       <c r="H11">
-        <v>91.33218182781445</v>
+        <v>91.33218182781475</v>
       </c>
       <c r="I11">
-        <v>1.179608578766403E-09</v>
+        <v>1.179608578766402E-09</v>
       </c>
       <c r="J11">
-        <v>5.362106541729644E-10</v>
+        <v>5.362106541729633E-10</v>
       </c>
       <c r="K11">
-        <v>0.001575750348612757</v>
+        <v>0.001575750348612761</v>
       </c>
       <c r="L11">
-        <v>0.09084816795936536</v>
+        <v>0.09084816795936539</v>
       </c>
       <c r="M11">
+        <v>0.09084816795936539</v>
+      </c>
+      <c r="N11">
         <v>817.9574806616123</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>82.83015224268932</v>
+        <v>82.83015224268925</v>
       </c>
       <c r="B12">
-        <v>1199.085848757117</v>
+        <v>1199.085848757083</v>
       </c>
       <c r="C12">
-        <v>1.742630881849932</v>
+        <v>1.742630881849884</v>
       </c>
       <c r="D12">
-        <v>32079.89725128303</v>
+        <v>32079.89725128305</v>
       </c>
       <c r="E12">
-        <v>10752.40881779892</v>
+        <v>10752.40881779893</v>
       </c>
       <c r="F12">
-        <v>10064.3567896571</v>
+        <v>10064.35678965711</v>
       </c>
       <c r="G12">
-        <v>37.21301352158505</v>
+        <v>37.21301352158515</v>
       </c>
       <c r="H12">
-        <v>84.94458432561528</v>
+        <v>84.94458432561554</v>
       </c>
       <c r="I12">
-        <v>1.199907317105199E-09</v>
+        <v>1.199907317105198E-09</v>
       </c>
       <c r="J12">
-        <v>5.557917133614042E-10</v>
+        <v>5.557917133614034E-10</v>
       </c>
       <c r="K12">
-        <v>0.001520339680715015</v>
+        <v>0.00152033968071502</v>
       </c>
       <c r="L12">
-        <v>0.09087649722077339</v>
+        <v>0.0908764972207734</v>
       </c>
       <c r="M12">
-        <v>812.2357622737542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.0908764972207734</v>
+      </c>
+      <c r="N12">
+        <v>812.2357622737544</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>84.33653135486206</v>
+        <v>84.33653135486199</v>
       </c>
       <c r="B13">
-        <v>1582.652602895105</v>
+        <v>1582.652602895107</v>
       </c>
       <c r="C13">
-        <v>2.259494124343061</v>
+        <v>2.259494124343066</v>
       </c>
       <c r="D13">
         <v>31838.42887364414</v>
@@ -1018,80 +1096,92 @@
         <v>9928.157997591006</v>
       </c>
       <c r="G13">
-        <v>34.52715897606729</v>
+        <v>34.5271589760674</v>
       </c>
       <c r="H13">
-        <v>78.97812957622502</v>
+        <v>78.97812957622514</v>
       </c>
       <c r="I13">
-        <v>1.220565015073736E-09</v>
+        <v>1.220565015073738E-09</v>
       </c>
       <c r="J13">
-        <v>5.765557205783866E-10</v>
+        <v>5.765557205783862E-10</v>
       </c>
       <c r="K13">
         <v>0.0014587011018179</v>
       </c>
       <c r="L13">
-        <v>0.0909428981656972</v>
+        <v>0.09094289816569716</v>
       </c>
       <c r="M13">
-        <v>807.3666772515263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.09094289816569716</v>
+      </c>
+      <c r="N13">
+        <v>807.3666772515255</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>85.84291046703481</v>
+        <v>85.84291046703474</v>
       </c>
       <c r="B14">
-        <v>2062.625444303217</v>
+        <v>2062.625444303159</v>
       </c>
       <c r="C14">
-        <v>2.893833321281044</v>
+        <v>2.893833321280966</v>
       </c>
       <c r="D14">
-        <v>31606.67572850229</v>
+        <v>31606.6757285023</v>
       </c>
       <c r="E14">
         <v>10513.27029173912</v>
       </c>
       <c r="F14">
-        <v>9800.569743295311</v>
+        <v>9800.569743295309</v>
       </c>
       <c r="G14">
-        <v>31.9504347933947</v>
+        <v>31.95043479339491</v>
       </c>
       <c r="H14">
-        <v>73.44144504464532</v>
+        <v>73.44144504464568</v>
       </c>
       <c r="I14">
-        <v>1.241647787874064E-09</v>
+        <v>1.241647787874066E-09</v>
       </c>
       <c r="J14">
-        <v>5.985957754313258E-10</v>
+        <v>5.985957754313257E-10</v>
       </c>
       <c r="K14">
         <v>0.001391992802492596</v>
       </c>
       <c r="L14">
-        <v>0.09103829309748641</v>
+        <v>0.09103829309748637</v>
       </c>
       <c r="M14">
-        <v>803.1264677301704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.09103829309748637</v>
+      </c>
+      <c r="N14">
+        <v>803.1264677301691</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>87.34928957920756</v>
+        <v>87.34928957920748</v>
       </c>
       <c r="B15">
-        <v>2656.760968730691</v>
+        <v>2656.760968730674</v>
       </c>
       <c r="C15">
-        <v>3.66427032543995</v>
+        <v>3.664270325439929</v>
       </c>
       <c r="D15">
-        <v>31383.83636922789</v>
+        <v>31383.83636922791</v>
       </c>
       <c r="E15">
         <v>10405.89755248608</v>
@@ -1100,3551 +1190,4073 @@
         <v>9680.93718154316</v>
       </c>
       <c r="G15">
-        <v>29.51358885411119</v>
+        <v>29.51358885411133</v>
       </c>
       <c r="H15">
-        <v>68.33236557461099</v>
+        <v>68.33236557461126</v>
       </c>
       <c r="I15">
-        <v>1.263220575012342E-09</v>
+        <v>1.26322057501234E-09</v>
       </c>
       <c r="J15">
-        <v>6.220088634426014E-10</v>
+        <v>6.220088634426E-10</v>
       </c>
       <c r="K15">
-        <v>0.001321589763036341</v>
+        <v>0.001321589763036345</v>
       </c>
       <c r="L15">
         <v>0.0911537395204771</v>
       </c>
       <c r="M15">
-        <v>799.3298088613592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.0911537395204771</v>
+      </c>
+      <c r="N15">
+        <v>799.3298088613595</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>88.85566869138032</v>
+        <v>88.85566869138022</v>
       </c>
       <c r="B16">
-        <v>3384.876502979831</v>
+        <v>3384.87650297979</v>
       </c>
       <c r="C16">
-        <v>4.591046942190481</v>
+        <v>4.59104694219043</v>
       </c>
       <c r="D16">
-        <v>31169.17572663762</v>
+        <v>31169.17572663763</v>
       </c>
       <c r="E16">
-        <v>10305.78341360822</v>
+        <v>10305.78341360823</v>
       </c>
       <c r="F16">
-        <v>9568.614316434987</v>
+        <v>9568.614316434994</v>
       </c>
       <c r="G16">
-        <v>27.23559408136526</v>
+        <v>27.23559408136545</v>
       </c>
       <c r="H16">
-        <v>63.64073509830484</v>
+        <v>63.64073509830515</v>
       </c>
       <c r="I16">
-        <v>1.285347337538253E-09</v>
+        <v>1.285347337538251E-09</v>
       </c>
       <c r="J16">
-        <v>6.468956007855456E-10</v>
+        <v>6.468956007855442E-10</v>
       </c>
       <c r="K16">
-        <v>0.001249007539596644</v>
+        <v>0.001249007539596648</v>
       </c>
       <c r="L16">
-        <v>0.09128072581745547</v>
+        <v>0.09128072581745544</v>
       </c>
       <c r="M16">
-        <v>795.821284771039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.09128072581745544</v>
+      </c>
+      <c r="N16">
+        <v>795.8212847710389</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>90.36204780355305</v>
+        <v>90.36204780355297</v>
       </c>
       <c r="B17">
-        <v>4268.930203460736</v>
+        <v>4268.930203460601</v>
       </c>
       <c r="C17">
-        <v>5.696023435068004</v>
+        <v>5.696023435067828</v>
       </c>
       <c r="D17">
-        <v>30962.0186994521</v>
+        <v>30962.01869945211</v>
       </c>
       <c r="E17">
         <v>10212.29434657563</v>
       </c>
       <c r="F17">
-        <v>9462.974245418578</v>
+        <v>9462.974245418583</v>
       </c>
       <c r="G17">
-        <v>25.12639031617646</v>
+        <v>25.12639031617658</v>
       </c>
       <c r="H17">
-        <v>59.3506864809187</v>
+        <v>59.35068648091897</v>
       </c>
       <c r="I17">
-        <v>1.308091299419481E-09</v>
+        <v>1.308091299419478E-09</v>
       </c>
       <c r="J17">
-        <v>6.733598864750007E-10</v>
+        <v>6.733598864749991E-10</v>
       </c>
       <c r="K17">
-        <v>0.001175800884461683</v>
+        <v>0.001175800884461688</v>
       </c>
       <c r="L17">
         <v>0.09141143946382294</v>
       </c>
       <c r="M17">
-        <v>792.4698840736851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.09141143946382294</v>
+      </c>
+      <c r="N17">
+        <v>792.4698840736859</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>91.86842691572579</v>
+        <v>91.86842691572571</v>
       </c>
       <c r="B18">
-        <v>5333.090540297766</v>
+        <v>5333.090540297621</v>
       </c>
       <c r="C18">
-        <v>7.002668736112967</v>
+        <v>7.002668736112784</v>
       </c>
       <c r="D18">
         <v>30761.74442272396</v>
       </c>
       <c r="E18">
-        <v>10124.82268918187</v>
+        <v>10124.82268918188</v>
       </c>
       <c r="F18">
         <v>9363.416330376109</v>
       </c>
       <c r="G18">
-        <v>23.18911390826785</v>
+        <v>23.189113908268</v>
       </c>
       <c r="H18">
-        <v>55.44246840111131</v>
+        <v>55.44246840111153</v>
       </c>
       <c r="I18">
-        <v>1.33151522499453E-09</v>
+        <v>1.331515224994531E-09</v>
       </c>
       <c r="J18">
-        <v>7.015084546040833E-10</v>
+        <v>7.015084546040825E-10</v>
       </c>
       <c r="K18">
-        <v>0.001103452491534539</v>
+        <v>0.00110345249153454</v>
       </c>
       <c r="L18">
-        <v>0.09153898040624049</v>
+        <v>0.09153898040624042</v>
       </c>
       <c r="M18">
-        <v>789.165479154345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.09153898040624042</v>
+      </c>
+      <c r="N18">
+        <v>789.165479154344</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>93.37480602789856</v>
+        <v>93.37480602789844</v>
       </c>
       <c r="B19">
-        <v>6603.794696191252</v>
+        <v>6603.794696191182</v>
       </c>
       <c r="C19">
-        <v>8.536043282193717</v>
+        <v>8.536043282193637</v>
       </c>
       <c r="D19">
-        <v>30567.78113519181</v>
+        <v>30567.78113519183</v>
       </c>
       <c r="E19">
-        <v>10042.79139516154</v>
+        <v>10042.79139516156</v>
       </c>
       <c r="F19">
-        <v>9269.37092734424</v>
+        <v>9269.37092734426</v>
       </c>
       <c r="G19">
-        <v>21.42189078180997</v>
+        <v>21.42189078180996</v>
       </c>
       <c r="H19">
-        <v>51.8938871470295</v>
+        <v>51.89388714702966</v>
       </c>
       <c r="I19">
-        <v>1.355681725815717E-09</v>
+        <v>1.355681725815716E-09</v>
       </c>
       <c r="J19">
-        <v>7.314503212903379E-10</v>
+        <v>7.31450321290335E-10</v>
       </c>
       <c r="K19">
-        <v>0.001033270701064651</v>
+        <v>0.001033270701064655</v>
       </c>
       <c r="L19">
-        <v>0.0916575004046223</v>
+        <v>0.09165750040462227</v>
       </c>
       <c r="M19">
-        <v>785.8165707304871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.09165750040462227</v>
+      </c>
+      <c r="N19">
+        <v>785.8165707304885</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>94.88118514007131</v>
+        <v>94.8811851400712</v>
       </c>
       <c r="B20">
-        <v>8109.795568257467</v>
+        <v>8109.795568257288</v>
       </c>
       <c r="C20">
-        <v>10.32277546533502</v>
+        <v>10.32277546533481</v>
       </c>
       <c r="D20">
-        <v>30379.60157656201</v>
+        <v>30379.60157656202</v>
       </c>
       <c r="E20">
-        <v>9965.656876568069</v>
+        <v>9965.656876568088</v>
       </c>
       <c r="F20">
-        <v>9180.30220680196</v>
+        <v>9180.30220680198</v>
       </c>
       <c r="G20">
-        <v>19.81926296693695</v>
+        <v>19.81926296693709</v>
       </c>
       <c r="H20">
-        <v>48.68142651031801</v>
+        <v>48.68142651031826</v>
       </c>
       <c r="I20">
-        <v>1.380653591533083E-09</v>
+        <v>1.380653591533081E-09</v>
       </c>
       <c r="J20">
-        <v>7.632961237643253E-10</v>
+        <v>7.63296123764323E-10</v>
       </c>
       <c r="K20">
-        <v>0.000966313080016074</v>
+        <v>0.0009663130800160774</v>
       </c>
       <c r="L20">
-        <v>0.09176225837981283</v>
+        <v>0.09176225837981279</v>
       </c>
       <c r="M20">
-        <v>782.3487804220385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.09176225837981279</v>
+      </c>
+      <c r="N20">
+        <v>782.3487804220388</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>96.38756425224405</v>
+        <v>96.38756425224395</v>
       </c>
       <c r="B21">
-        <v>9882.197222364586</v>
+        <v>9882.197222364372</v>
       </c>
       <c r="C21">
-        <v>12.39103273634698</v>
+        <v>12.39103273634672</v>
       </c>
       <c r="D21">
-        <v>30196.71885432347</v>
+        <v>30196.71885432348</v>
       </c>
       <c r="E21">
-        <v>9892.910379368956</v>
+        <v>9892.910379368961</v>
       </c>
       <c r="F21">
-        <v>9095.7095055276</v>
+        <v>9095.709505527602</v>
       </c>
       <c r="G21">
-        <v>18.37331110893582</v>
+        <v>18.37331110893609</v>
       </c>
       <c r="H21">
-        <v>45.78110240612871</v>
+        <v>45.78110240612904</v>
       </c>
       <c r="I21">
-        <v>1.406494140740522E-09</v>
+        <v>1.406494140740521E-09</v>
       </c>
       <c r="J21">
-        <v>7.971573525051557E-10</v>
+        <v>7.971573525051532E-10</v>
       </c>
       <c r="K21">
-        <v>0.0009033460597194359</v>
+        <v>0.0009033460597194419</v>
       </c>
       <c r="L21">
         <v>0.09184959108942881</v>
       </c>
       <c r="M21">
-        <v>778.7037143916565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.09184959108942881</v>
+      </c>
+      <c r="N21">
+        <v>778.7037143916551</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>97.8939433644168</v>
+        <v>97.89394336441669</v>
       </c>
       <c r="B22">
-        <v>11954.47880815192</v>
+        <v>11954.47880815175</v>
       </c>
       <c r="C22">
-        <v>14.77048843486554</v>
+        <v>14.77048843486535</v>
       </c>
       <c r="D22">
-        <v>30018.68272710443</v>
+        <v>30018.68272710445</v>
       </c>
       <c r="E22">
-        <v>9824.078252352112</v>
+        <v>9824.078252352101</v>
       </c>
       <c r="F22">
-        <v>9015.127570662433</v>
+        <v>9015.127570662427</v>
       </c>
       <c r="G22">
-        <v>17.07452744190133</v>
+        <v>17.07452744190141</v>
       </c>
       <c r="H22">
-        <v>43.16910161984207</v>
+        <v>43.16910161984226</v>
       </c>
       <c r="I22">
-        <v>1.433267588883757E-09</v>
+        <v>1.433267588883752E-09</v>
       </c>
       <c r="J22">
-        <v>8.331454814516663E-10</v>
+        <v>8.331454814516629E-10</v>
       </c>
       <c r="K22">
-        <v>0.0008448419215170311</v>
+        <v>0.0008448419215170367</v>
       </c>
       <c r="L22">
-        <v>0.09191680688204405</v>
+        <v>0.09191680688204408</v>
       </c>
       <c r="M22">
-        <v>774.8379302374655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.09191680688204408</v>
+      </c>
+      <c r="N22">
+        <v>774.8379302374666</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>99.40032247658955</v>
+        <v>99.40032247658942</v>
       </c>
       <c r="B23">
-        <v>14362.50709426648</v>
+        <v>14362.50709426622</v>
       </c>
       <c r="C23">
-        <v>17.49228543425108</v>
+        <v>17.49228543425079</v>
       </c>
       <c r="D23">
-        <v>29845.07625797548</v>
+        <v>29845.07625797549</v>
       </c>
       <c r="E23">
-        <v>9758.721400089456</v>
+        <v>9758.721400089462</v>
       </c>
       <c r="F23">
-        <v>8938.125987252837</v>
+        <v>8938.125987252841</v>
       </c>
       <c r="G23">
-        <v>15.91248585454741</v>
+        <v>15.9124858545475</v>
       </c>
       <c r="H23">
-        <v>40.82224691049132</v>
+        <v>40.82224691049147</v>
       </c>
       <c r="I23">
-        <v>1.46103943140628E-09</v>
+        <v>1.461039431406279E-09</v>
       </c>
       <c r="J23">
-        <v>8.713710059846118E-10</v>
+        <v>8.713710059846084E-10</v>
       </c>
       <c r="K23">
-        <v>0.000791006617320402</v>
+        <v>0.0007910066173204058</v>
       </c>
       <c r="L23">
-        <v>0.09196201708367846</v>
+        <v>0.09196201708367847</v>
       </c>
       <c r="M23">
+        <v>0.09196201708367847</v>
+      </c>
+      <c r="N23">
         <v>770.7218315407858</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>100.9067015887623</v>
+        <v>100.9067015887622</v>
       </c>
       <c r="B24">
-        <v>17144.5379233266</v>
+        <v>17144.53792332622</v>
       </c>
       <c r="C24">
-        <v>20.58899768675319</v>
+        <v>20.58899768675277</v>
       </c>
       <c r="D24">
-        <v>29675.51279665169</v>
+        <v>29675.5127966517</v>
       </c>
       <c r="E24">
         <v>9696.43415195102</v>
       </c>
       <c r="F24">
-        <v>8864.308021758887</v>
+        <v>8864.308021758885</v>
       </c>
       <c r="G24">
-        <v>14.8763483836039</v>
+        <v>14.87634838360396</v>
       </c>
       <c r="H24">
-        <v>38.71832400258066</v>
+        <v>38.71832400258084</v>
       </c>
       <c r="I24">
-        <v>1.489876841282772E-09</v>
+        <v>1.489876841282771E-09</v>
       </c>
       <c r="J24">
-        <v>9.119424034069266E-10</v>
+        <v>9.11942403406923E-10</v>
       </c>
       <c r="K24">
-        <v>0.0007418274326664322</v>
+        <v>0.0007418274326664359</v>
       </c>
       <c r="L24">
-        <v>0.0919839241645912</v>
+        <v>0.09198392416459122</v>
       </c>
       <c r="M24">
-        <v>766.338394717655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.09198392416459122</v>
+      </c>
+      <c r="N24">
+        <v>766.3383947176554</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>102.4130807009351</v>
+        <v>102.4130807009349</v>
       </c>
       <c r="B25">
-        <v>20341.20701151594</v>
+        <v>20341.20701151563</v>
       </c>
       <c r="C25">
-        <v>24.0945907340858</v>
+        <v>24.09459073408548</v>
       </c>
       <c r="D25">
-        <v>29509.63325437526</v>
+        <v>29509.63325437527</v>
       </c>
       <c r="E25">
-        <v>9636.842730111639</v>
+        <v>9636.842730111654</v>
       </c>
       <c r="F25">
-        <v>8793.309064924251</v>
+        <v>8793.309064924264</v>
       </c>
       <c r="G25">
-        <v>13.9552409394165</v>
+        <v>13.95524093941656</v>
       </c>
       <c r="H25">
-        <v>36.83629997967014</v>
+        <v>36.83629997967032</v>
       </c>
       <c r="I25">
         <v>1.519849080965907E-09</v>
       </c>
       <c r="J25">
-        <v>9.54965035801618E-10</v>
+        <v>9.549650358016133E-10</v>
       </c>
       <c r="K25">
-        <v>0.0006971288199027531</v>
+        <v>0.0006971288199027575</v>
       </c>
       <c r="L25">
-        <v>0.09198158794063137</v>
+        <v>0.0919815879406314</v>
       </c>
       <c r="M25">
-        <v>761.6817007643243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.0919815879406314</v>
+      </c>
+      <c r="N25">
+        <v>761.6817007643247</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>103.9194598131078</v>
+        <v>103.9194598131076</v>
       </c>
       <c r="B26">
-        <v>23995.51062622411</v>
+        <v>23995.51062622342</v>
       </c>
       <c r="C26">
-        <v>28.0443822130499</v>
+        <v>28.04438221304913</v>
       </c>
       <c r="D26">
-        <v>29347.10363947522</v>
+        <v>29347.10363947524</v>
       </c>
       <c r="E26">
-        <v>9579.603459044145</v>
+        <v>9579.60345904416</v>
       </c>
       <c r="F26">
-        <v>8724.794816904347</v>
+        <v>8724.794816904363</v>
       </c>
       <c r="G26">
-        <v>13.13852536307543</v>
+        <v>13.13852536307559</v>
       </c>
       <c r="H26">
-        <v>35.15645733003356</v>
+        <v>35.15645733003379</v>
       </c>
       <c r="I26">
-        <v>1.551027929562662E-09</v>
+        <v>1.551027929562656E-09</v>
       </c>
       <c r="J26">
-        <v>1.000540020117774E-09</v>
+        <v>1.00054002011777E-09</v>
       </c>
       <c r="K26">
-        <v>0.0006566268703237685</v>
+        <v>0.0006566268703237725</v>
       </c>
       <c r="L26">
         <v>0.0919541907871059</v>
       </c>
       <c r="M26">
-        <v>756.7552976941091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.0919541907871059</v>
+      </c>
+      <c r="N26">
+        <v>756.7552976941093</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>105.4258389252805</v>
+        <v>105.4258389252804</v>
       </c>
       <c r="B27">
-        <v>28152.77676543094</v>
+        <v>28152.77676543036</v>
       </c>
       <c r="C27">
-        <v>32.47500333772205</v>
+        <v>32.47500333772142</v>
       </c>
       <c r="D27">
-        <v>29187.61282529047</v>
+        <v>29187.61282529048</v>
       </c>
       <c r="E27">
-        <v>9524.400825990459</v>
+        <v>9524.400825990469</v>
       </c>
       <c r="F27">
-        <v>8658.459324493519</v>
+        <v>8658.459324493533</v>
       </c>
       <c r="G27">
-        <v>12.41599002018289</v>
+        <v>12.41599002018284</v>
       </c>
       <c r="H27">
-        <v>33.66046338209163</v>
+        <v>33.66046338209168</v>
       </c>
       <c r="I27">
-        <v>1.583488126773326E-09</v>
+        <v>1.583488126773323E-09</v>
       </c>
       <c r="J27">
-        <v>1.04876309478078E-09</v>
+        <v>1.048763094780776E-09</v>
       </c>
       <c r="K27">
-        <v>0.0006199763037670631</v>
+        <v>0.0006199763037670666</v>
       </c>
       <c r="L27">
         <v>0.09190082063190047</v>
       </c>
       <c r="M27">
-        <v>751.5704557412794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.09190082063190047</v>
+      </c>
+      <c r="N27">
+        <v>751.5704557412812</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>106.9322180374533</v>
+        <v>106.9322180374531</v>
       </c>
       <c r="B28">
-        <v>32860.62753414644</v>
+        <v>32860.62753414593</v>
       </c>
       <c r="C28">
-        <v>37.42436228207858</v>
+        <v>37.42436228207804</v>
       </c>
       <c r="D28">
-        <v>29030.87052537771</v>
+        <v>29030.87052537772</v>
       </c>
       <c r="E28">
-        <v>9470.945475236782</v>
+        <v>9470.945475236776</v>
       </c>
       <c r="F28">
-        <v>8594.022953571546</v>
+        <v>8594.022953571539</v>
       </c>
       <c r="G28">
-        <v>11.77797699556105</v>
+        <v>11.77797699556104</v>
       </c>
       <c r="H28">
-        <v>32.33139105587473</v>
+        <v>32.33139105587478</v>
       </c>
       <c r="I28">
-        <v>1.617307835786097E-09</v>
+        <v>1.617307835786095E-09</v>
       </c>
       <c r="J28">
-        <v>1.099723515682596E-09</v>
+        <v>1.099723515682592E-09</v>
       </c>
       <c r="K28">
-        <v>0.0005868071978729031</v>
+        <v>0.0005868071978729053</v>
       </c>
       <c r="L28">
         <v>0.09182028699018401</v>
       </c>
       <c r="M28">
-        <v>746.1443962117414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.09182028699018401</v>
+      </c>
+      <c r="N28">
+        <v>746.1443962117422</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>108.438597149626</v>
+        <v>108.4385971496259</v>
       </c>
       <c r="B29">
-        <v>38168.93346634766</v>
+        <v>38168.93346634691</v>
       </c>
       <c r="C29">
-        <v>42.9316103228219</v>
+        <v>42.93161032282111</v>
       </c>
       <c r="D29">
-        <v>28876.60545376978</v>
+        <v>28876.60545376979</v>
       </c>
       <c r="E29">
-        <v>9418.972197667626</v>
+        <v>9418.972197667636</v>
       </c>
       <c r="F29">
-        <v>8531.230358484032</v>
+        <v>8531.230358484036</v>
       </c>
       <c r="G29">
-        <v>11.21546048735025</v>
+        <v>11.2154604873503</v>
       </c>
       <c r="H29">
-        <v>31.15370367521764</v>
+        <v>31.15370367521773</v>
       </c>
       <c r="I29">
-        <v>1.652569127937847E-09</v>
+        <v>1.652569127937845E-09</v>
       </c>
       <c r="J29">
-        <v>1.153503016738103E-09</v>
+        <v>1.153503016738097E-09</v>
       </c>
       <c r="K29">
-        <v>0.0005567512060314216</v>
+        <v>0.0005567512060314242</v>
       </c>
       <c r="L29">
         <v>0.09171098115551894</v>
       </c>
       <c r="M29">
-        <v>740.498577769295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.09171098115551894</v>
+      </c>
+      <c r="N29">
+        <v>740.4985777692953</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>109.9449762617988</v>
+        <v>109.9449762617986</v>
       </c>
       <c r="B30">
-        <v>44129.7605765037</v>
+        <v>44129.76057650286</v>
       </c>
       <c r="C30">
-        <v>49.03711153492744</v>
+        <v>49.03711153492658</v>
       </c>
       <c r="D30">
-        <v>28724.56365055035</v>
+        <v>28724.56365055036</v>
       </c>
       <c r="E30">
-        <v>9368.23796013122</v>
+        <v>9368.237960131231</v>
       </c>
       <c r="F30">
-        <v>8469.848493078096</v>
+        <v>8469.848493078107</v>
       </c>
       <c r="G30">
-        <v>10.72008812302039</v>
+        <v>10.72008812302038</v>
       </c>
       <c r="H30">
-        <v>30.11321395494485</v>
+        <v>30.11321395494488</v>
       </c>
       <c r="I30">
-        <v>1.689358492544565E-09</v>
+        <v>1.689358492544561E-09</v>
       </c>
       <c r="J30">
-        <v>1.210174871001353E-09</v>
+        <v>1.210174871001347E-09</v>
       </c>
       <c r="K30">
-        <v>0.0005294585288773696</v>
+        <v>0.0005294585288773721</v>
       </c>
       <c r="L30">
         <v>0.09157078738682031</v>
       </c>
       <c r="M30">
-        <v>734.6571143476223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.09157078738682031</v>
+      </c>
+      <c r="N30">
+        <v>734.6571143476233</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>111.4513553739716</v>
+        <v>111.4513553739714</v>
       </c>
       <c r="B31">
-        <v>50797.31094419592</v>
+        <v>50797.31094419518</v>
       </c>
       <c r="C31">
-        <v>55.78241676490589</v>
+        <v>55.78241676490515</v>
       </c>
       <c r="D31">
-        <v>28574.50695521541</v>
+        <v>28574.50695521543</v>
       </c>
       <c r="E31">
-        <v>9318.520005828226</v>
+        <v>9318.520005828232</v>
       </c>
       <c r="F31">
-        <v>8409.66469474814</v>
+        <v>8409.664694748144</v>
       </c>
       <c r="G31">
-        <v>10.2841945503699</v>
+        <v>10.28419455036995</v>
       </c>
       <c r="H31">
-        <v>29.19702511989476</v>
+        <v>29.19702511989489</v>
       </c>
       <c r="I31">
-        <v>1.72776737588848E-09</v>
+        <v>1.727767375888475E-09</v>
       </c>
       <c r="J31">
-        <v>1.269803087415926E-09</v>
+        <v>1.269803087415915E-09</v>
       </c>
       <c r="K31">
-        <v>0.0005046075593563955</v>
+        <v>0.0005046075593563989</v>
       </c>
       <c r="L31">
-        <v>0.09139704785430997</v>
+        <v>0.09139704785430999</v>
       </c>
       <c r="M31">
-        <v>728.6453811716586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.09139704785430999</v>
+      </c>
+      <c r="N31">
+        <v>728.6453811716596</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>112.9577344861443</v>
+        <v>112.9577344861441</v>
       </c>
       <c r="B32">
-        <v>58227.85764029131</v>
+        <v>58227.85764029105</v>
       </c>
       <c r="C32">
-        <v>63.2102425418233</v>
+        <v>63.21024254182313</v>
       </c>
       <c r="D32">
-        <v>28426.21161223352</v>
+        <v>28426.21161223353</v>
       </c>
       <c r="E32">
-        <v>9269.614046566658</v>
+        <v>9269.614046566654</v>
       </c>
       <c r="F32">
-        <v>8350.484862437033</v>
+        <v>8350.484862437028</v>
       </c>
       <c r="G32">
-        <v>9.900794716316042</v>
+        <v>9.900794716316183</v>
       </c>
       <c r="H32">
-        <v>28.3934603555936</v>
+        <v>28.3934603555938</v>
       </c>
       <c r="I32">
-        <v>1.767892753940589E-09</v>
+        <v>1.767892753940587E-09</v>
       </c>
       <c r="J32">
-        <v>1.332441775539284E-09</v>
+        <v>1.332441775539277E-09</v>
       </c>
       <c r="K32">
-        <v>0.0004819091936757181</v>
+        <v>0.0004819091936757204</v>
       </c>
       <c r="L32">
         <v>0.09118658040482114</v>
       </c>
       <c r="M32">
-        <v>722.4888440461691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.09118658040482114</v>
+      </c>
+      <c r="N32">
+        <v>722.4888440461685</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>114.464113598317</v>
+        <v>114.4641135983168</v>
       </c>
       <c r="B33">
-        <v>66479.67479551009</v>
+        <v>66479.67479550911</v>
       </c>
       <c r="C33">
-        <v>71.36445552619575</v>
+        <v>71.36445552619482</v>
       </c>
       <c r="D33">
-        <v>28279.46699493015</v>
+        <v>28279.46699493017</v>
       </c>
       <c r="E33">
-        <v>9221.332559741608</v>
+        <v>9221.332559741626</v>
       </c>
       <c r="F33">
-        <v>8292.131741520354</v>
+        <v>8292.13174152037</v>
       </c>
       <c r="G33">
-        <v>9.563562666026556</v>
+        <v>9.56356266602662</v>
       </c>
       <c r="H33">
-        <v>27.69198536859096</v>
+        <v>27.69198536859104</v>
       </c>
       <c r="I33">
-        <v>1.809837744012899E-09</v>
+        <v>1.809837744012895E-09</v>
       </c>
       <c r="J33">
-        <v>1.3981347060819E-09</v>
+        <v>1.398134706081893E-09</v>
       </c>
       <c r="K33">
-        <v>0.0004611075554112607</v>
+        <v>0.0004611075554112625</v>
       </c>
       <c r="L33">
-        <v>0.09093574498835787</v>
+        <v>0.09093574498835788</v>
       </c>
       <c r="M33">
-        <v>716.2121259434351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.09093574498835788</v>
+      </c>
+      <c r="N33">
+        <v>716.2121259434352</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>115.9704927104898</v>
+        <v>115.9704927104896</v>
       </c>
       <c r="B34">
-        <v>75612.96359399252</v>
+        <v>75612.96359399098</v>
       </c>
       <c r="C34">
-        <v>80.29006304407186</v>
+        <v>80.29006304407031</v>
       </c>
       <c r="D34">
-        <v>28134.07443533369</v>
+        <v>28134.07443533371</v>
       </c>
       <c r="E34">
-        <v>9173.503196828409</v>
+        <v>9173.503196828411</v>
       </c>
       <c r="F34">
-        <v>8234.443322405414</v>
+        <v>8234.443322405419</v>
       </c>
       <c r="G34">
-        <v>9.266800414317315</v>
+        <v>9.266800414317402</v>
       </c>
       <c r="H34">
-        <v>27.08312769095751</v>
+        <v>27.0831276909576</v>
       </c>
       <c r="I34">
-        <v>1.853712261190775E-09</v>
+        <v>1.853712261190766E-09</v>
       </c>
       <c r="J34">
-        <v>1.466915089031943E-09</v>
+        <v>1.466915089031933E-09</v>
       </c>
       <c r="K34">
-        <v>0.0004419785122533405</v>
+        <v>0.0004419785122533436</v>
       </c>
       <c r="L34">
-        <v>0.09064055199192965</v>
+        <v>0.0906405519919297</v>
       </c>
       <c r="M34">
-        <v>709.8383067026846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.0906405519919297</v>
+      </c>
+      <c r="N34">
+        <v>709.8383067026853</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>117.4768718226625</v>
+        <v>117.4768718226623</v>
       </c>
       <c r="B35">
-        <v>85689.77494769677</v>
+        <v>85689.77494769599</v>
       </c>
       <c r="C35">
-        <v>90.0332102098869</v>
+        <v>90.03321020988624</v>
       </c>
       <c r="D35">
-        <v>27989.84614895387</v>
+        <v>27989.84614895389</v>
       </c>
       <c r="E35">
-        <v>9125.967305632585</v>
+        <v>9125.967305632599</v>
       </c>
       <c r="F35">
-        <v>8177.27135511168</v>
+        <v>8177.271355111698</v>
       </c>
       <c r="G35">
-        <v>9.00540040851914</v>
+        <v>9.005400408519185</v>
       </c>
       <c r="H35">
-        <v>26.55839544949911</v>
+        <v>26.55839544949916</v>
       </c>
       <c r="I35">
-        <v>1.899633726110985E-09</v>
+        <v>1.899633726110977E-09</v>
       </c>
       <c r="J35">
-        <v>1.538805583824465E-09</v>
+        <v>1.538805583824454E-09</v>
       </c>
       <c r="K35">
-        <v>0.0004243269917713645</v>
+        <v>0.0004243269917713666</v>
       </c>
       <c r="L35">
-        <v>0.0902968039658824</v>
+        <v>0.09029680396588251</v>
       </c>
       <c r="M35">
-        <v>703.3884378276621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.09029680396588251</v>
+      </c>
+      <c r="N35">
+        <v>703.3884378276631</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>118.9832509348353</v>
+        <v>118.9832509348351</v>
       </c>
       <c r="B36">
-        <v>96773.92957414813</v>
+        <v>96773.92957414611</v>
       </c>
       <c r="C36">
-        <v>100.6411841086876</v>
+        <v>100.6411841086856</v>
       </c>
       <c r="D36">
-        <v>27846.60424464206</v>
+        <v>27846.60424464207</v>
       </c>
       <c r="E36">
-        <v>9078.578565199967</v>
+        <v>9078.578565199974</v>
       </c>
       <c r="F36">
-        <v>8120.47997874785</v>
+        <v>8120.479978747848</v>
       </c>
       <c r="G36">
-        <v>8.774804273176059</v>
+        <v>8.774804273176013</v>
       </c>
       <c r="H36">
-        <v>26.1101975943968</v>
+        <v>26.11019759439678</v>
       </c>
       <c r="I36">
-        <v>1.947727831441378E-09</v>
+        <v>1.947727831441376E-09</v>
       </c>
       <c r="J36">
-        <v>1.613818547896226E-09</v>
+        <v>1.613818547896218E-09</v>
       </c>
       <c r="K36">
-        <v>0.0004079837814945273</v>
+        <v>0.0004079837814945289</v>
       </c>
       <c r="L36">
-        <v>0.0899002615615558</v>
+        <v>0.08990026156155582</v>
       </c>
       <c r="M36">
-        <v>696.8812453545276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.08990026156155582</v>
+      </c>
+      <c r="N36">
+        <v>696.8812453545281</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>120.489630047008</v>
+        <v>120.4896300470078</v>
       </c>
       <c r="B37">
-        <v>108930.9361618982</v>
+        <v>108930.9361618962</v>
       </c>
       <c r="C37">
-        <v>112.1624254873492</v>
+        <v>112.1624254873473</v>
       </c>
       <c r="D37">
-        <v>27704.17981072177</v>
+        <v>27704.17981072178</v>
       </c>
       <c r="E37">
-        <v>9031.201729893657</v>
+        <v>9031.201729893679</v>
       </c>
       <c r="F37">
-        <v>8063.944462398355</v>
+        <v>8063.944462398376</v>
       </c>
       <c r="G37">
-        <v>8.570959865248533</v>
+        <v>8.570959865248589</v>
       </c>
       <c r="H37">
-        <v>25.73176700972832</v>
+        <v>25.73176700972838</v>
       </c>
       <c r="I37">
-        <v>1.998129375305141E-09</v>
+        <v>1.998129375305136E-09</v>
       </c>
       <c r="J37">
-        <v>1.691956521551277E-09</v>
+        <v>1.691956521551266E-09</v>
       </c>
       <c r="K37">
-        <v>0.0003928022483098878</v>
+        <v>0.0003928022483098892</v>
       </c>
       <c r="L37">
-        <v>0.08944682512471468</v>
+        <v>0.08944682512471472</v>
       </c>
       <c r="M37">
-        <v>690.3329891969842</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.08944682512471472</v>
+      </c>
+      <c r="N37">
+        <v>690.3329891969844</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>121.9960091591808</v>
+        <v>121.9960091591806</v>
       </c>
       <c r="B38">
-        <v>122227.9082671081</v>
+        <v>122227.9082671069</v>
       </c>
       <c r="C38">
-        <v>124.6465483971505</v>
+        <v>124.6465483971496</v>
       </c>
       <c r="D38">
-        <v>27562.41206949509</v>
+        <v>27562.41206949511</v>
       </c>
       <c r="E38">
-        <v>8983.711477482517</v>
+        <v>8983.711477482513</v>
       </c>
       <c r="F38">
-        <v>8007.550052270973</v>
+        <v>8007.550052270971</v>
       </c>
       <c r="G38">
-        <v>8.390278143071148</v>
+        <v>8.390278143071185</v>
       </c>
       <c r="H38">
-        <v>25.41708748068524</v>
+        <v>25.41708748068529</v>
       </c>
       <c r="I38">
-        <v>2.050983170896625E-09</v>
+        <v>2.05098317089662E-09</v>
       </c>
       <c r="J38">
-        <v>1.773212938877633E-09</v>
+        <v>1.773212938877621E-09</v>
       </c>
       <c r="K38">
-        <v>0.0003786552305698603</v>
+        <v>0.0003786552305698622</v>
       </c>
       <c r="L38">
-        <v>0.08893272527390836</v>
+        <v>0.08893272527390841</v>
       </c>
       <c r="M38">
-        <v>683.757446442753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.08893272527390841</v>
+      </c>
+      <c r="N38">
+        <v>683.7574464427537</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>123.5023882713535</v>
+        <v>123.5023882713533</v>
       </c>
       <c r="B39">
-        <v>136733.4805421428</v>
+        <v>136733.4805421414</v>
       </c>
       <c r="C39">
-        <v>138.1443682374101</v>
+        <v>138.1443682374089</v>
       </c>
       <c r="D39">
-        <v>27421.14759304082</v>
+        <v>27421.14759304085</v>
       </c>
       <c r="E39">
-        <v>8935.991354986532</v>
+        <v>8935.991354986545</v>
       </c>
       <c r="F39">
-        <v>7951.190918864067</v>
+        <v>7951.190918864091</v>
       </c>
       <c r="G39">
-        <v>8.229590937761838</v>
+        <v>8.229590937761875</v>
       </c>
       <c r="H39">
-        <v>25.1608251455139</v>
+        <v>25.16082514551395</v>
       </c>
       <c r="I39">
-        <v>2.106445042680769E-09</v>
+        <v>2.106445042680757E-09</v>
       </c>
       <c r="J39">
-        <v>1.857573047005024E-09</v>
+        <v>1.857573047005008E-09</v>
       </c>
       <c r="K39">
-        <v>0.0003654322322269071</v>
+        <v>0.0003654322322269096</v>
       </c>
       <c r="L39">
-        <v>0.08835471849556385</v>
+        <v>0.08835471849556402</v>
       </c>
       <c r="M39">
-        <v>677.1659877805391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.08835471849556402</v>
+      </c>
+      <c r="N39">
+        <v>677.1659877805406</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>125.0087673835263</v>
+        <v>125.008767383526</v>
       </c>
       <c r="B40">
-        <v>152517.7248547056</v>
+        <v>152517.7248547028</v>
       </c>
       <c r="C40">
-        <v>152.707938673513</v>
+        <v>152.7079386735104</v>
       </c>
       <c r="D40">
-        <v>27280.23957393365</v>
+        <v>27280.23957393368</v>
       </c>
       <c r="E40">
-        <v>8887.932815351171</v>
+        <v>8887.932815351183</v>
       </c>
       <c r="F40">
-        <v>7894.769197250724</v>
+        <v>7894.769197250737</v>
       </c>
       <c r="G40">
-        <v>8.08611039096288</v>
+        <v>8.086110390962913</v>
       </c>
       <c r="H40">
-        <v>24.95826479456534</v>
+        <v>24.95826479456536</v>
       </c>
       <c r="I40">
-        <v>2.164682920881232E-09</v>
+        <v>2.164682920881221E-09</v>
       </c>
       <c r="J40">
-        <v>1.945015009709247E-09</v>
+        <v>1.945015009709229E-09</v>
       </c>
       <c r="K40">
-        <v>0.0003530369683561911</v>
+        <v>0.0003530369683561931</v>
       </c>
       <c r="L40">
-        <v>0.08771028635351077</v>
+        <v>0.08771028635351089</v>
       </c>
       <c r="M40">
-        <v>670.5677196132669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.08771028635351089</v>
+      </c>
+      <c r="N40">
+        <v>670.5677196132681</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>126.515146495699</v>
+        <v>126.5151464956988</v>
       </c>
       <c r="B41">
-        <v>169652.0668149915</v>
+        <v>169652.0668149899</v>
       </c>
       <c r="C41">
-        <v>168.3905979438447</v>
+        <v>168.3905979438434</v>
       </c>
       <c r="D41">
-        <v>27139.54714514439</v>
+        <v>27139.54714514441</v>
       </c>
       <c r="E41">
-        <v>8839.434337670144</v>
+        <v>8839.434337670151</v>
       </c>
       <c r="F41">
-        <v>7838.194113239409</v>
+        <v>7838.194113239419</v>
       </c>
       <c r="G41">
-        <v>7.957390570424477</v>
+        <v>7.957390570424486</v>
       </c>
       <c r="H41">
-        <v>24.80525117826062</v>
+        <v>24.80525117826064</v>
       </c>
       <c r="I41">
-        <v>2.225878047475125E-09</v>
+        <v>2.225878047475116E-09</v>
       </c>
       <c r="J41">
-        <v>2.035511166573429E-09</v>
+        <v>2.035511166573412E-09</v>
       </c>
       <c r="K41">
-        <v>0.0003413852632196207</v>
+        <v>0.0003413852632196226</v>
       </c>
       <c r="L41">
-        <v>0.08699783794007823</v>
+        <v>0.0869978379400784</v>
       </c>
       <c r="M41">
-        <v>663.9696686402006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.0869978379400784</v>
+      </c>
+      <c r="N41">
+        <v>663.9696686402017</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>128.0215256078718</v>
+        <v>128.0215256078715</v>
       </c>
       <c r="B42">
-        <v>188209.2031897426</v>
+        <v>188209.203189735</v>
       </c>
       <c r="C42">
-        <v>185.2470251305166</v>
+        <v>185.2470251305092</v>
       </c>
       <c r="D42">
-        <v>26998.93474393603</v>
+        <v>26998.93474393605</v>
       </c>
       <c r="E42">
-        <v>8790.400623554469</v>
+        <v>8790.400623554484</v>
       </c>
       <c r="F42">
-        <v>7781.381188069424</v>
+        <v>7781.38118806944</v>
       </c>
       <c r="G42">
-        <v>7.841291580768091</v>
+        <v>7.841291580768126</v>
       </c>
       <c r="H42">
-        <v>24.69813533707625</v>
+        <v>24.69813533707629</v>
       </c>
       <c r="I42">
-        <v>2.290226308659688E-09</v>
+        <v>2.290226308659675E-09</v>
       </c>
       <c r="J42">
-        <v>2.129029415803958E-09</v>
+        <v>2.129029415803939E-09</v>
       </c>
       <c r="K42">
-        <v>0.0003304032755010501</v>
+        <v>0.000330403275501052</v>
       </c>
       <c r="L42">
-        <v>0.08621691318149574</v>
+        <v>0.08621691318149587</v>
       </c>
       <c r="M42">
-        <v>657.3769901435293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.08621691318149587</v>
+      </c>
+      <c r="N42">
+        <v>657.3769901435304</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>129.5279047200445</v>
+        <v>129.5279047200443</v>
       </c>
       <c r="B43">
-        <v>208263.0206468789</v>
+        <v>208263.020646873</v>
       </c>
       <c r="C43">
-        <v>203.3333070500937</v>
+        <v>203.3333070500881</v>
       </c>
       <c r="D43">
-        <v>26858.27151506067</v>
+        <v>26858.2715150607</v>
       </c>
       <c r="E43">
-        <v>8740.741862289828</v>
+        <v>8740.741862289839</v>
       </c>
       <c r="F43">
-        <v>7724.251514365811</v>
+        <v>7724.251514365821</v>
       </c>
       <c r="G43">
-        <v>7.735946339185775</v>
+        <v>7.735946339185783</v>
       </c>
       <c r="H43">
-        <v>24.63372585913262</v>
+        <v>24.63372585913267</v>
       </c>
       <c r="I43">
-        <v>2.357939710781685E-09</v>
+        <v>2.357939710781676E-09</v>
       </c>
       <c r="J43">
-        <v>2.2255346874251E-09</v>
+        <v>2.225534687425085E-09</v>
       </c>
       <c r="K43">
-        <v>0.0003200260129127871</v>
+        <v>0.0003200260129127885</v>
       </c>
       <c r="L43">
-        <v>0.08536837857584992</v>
+        <v>0.08536837857585006</v>
       </c>
       <c r="M43">
-        <v>650.7931854668603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.08536837857585006</v>
+      </c>
+      <c r="N43">
+        <v>650.7931854668616</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>131.0342838322173</v>
+        <v>131.034283832217</v>
       </c>
       <c r="B44">
-        <v>229888.5162437871</v>
+        <v>229888.5162437841</v>
       </c>
       <c r="C44">
-        <v>222.7070165253034</v>
+        <v>222.7070165253007</v>
       </c>
       <c r="D44">
-        <v>26717.4307489931</v>
+        <v>26717.43074899313</v>
       </c>
       <c r="E44">
-        <v>8690.373057582434</v>
+        <v>8690.37305758243</v>
       </c>
       <c r="F44">
-        <v>7666.731096261914</v>
+        <v>7666.731096261913</v>
       </c>
       <c r="G44">
-        <v>7.639730075341248</v>
+        <v>7.639730075341262</v>
       </c>
       <c r="H44">
-        <v>24.6092448959218</v>
+        <v>24.60924489592179</v>
       </c>
       <c r="I44">
-        <v>2.429248019073283E-09</v>
+        <v>2.429248019073269E-09</v>
       </c>
       <c r="J44">
-        <v>2.324990473868613E-09</v>
+        <v>2.324990473868597E-09</v>
       </c>
       <c r="K44">
-        <v>0.0003101960946224336</v>
+        <v>0.0003101960946224355</v>
       </c>
       <c r="L44">
-        <v>0.08445459727070176</v>
+        <v>0.08445459727070197</v>
       </c>
       <c r="M44">
-        <v>644.2203179687218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.08445459727070197</v>
+      </c>
+      <c r="N44">
+        <v>644.2203179687232</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>132.54066294439</v>
+        <v>132.5406629443898</v>
       </c>
       <c r="B45">
-        <v>253161.720046452</v>
+        <v>253161.7200464476</v>
       </c>
       <c r="C45">
-        <v>243.4273029286876</v>
+        <v>243.4273029286837</v>
       </c>
       <c r="D45">
-        <v>26576.28935131676</v>
+        <v>26576.28935131678</v>
       </c>
       <c r="E45">
-        <v>8639.21340892226</v>
+        <v>8639.213408922265</v>
       </c>
       <c r="F45">
-        <v>7608.750246853285</v>
+        <v>7608.750246853289</v>
       </c>
       <c r="G45">
-        <v>7.551232533614626</v>
+        <v>7.551232533614622</v>
       </c>
       <c r="H45">
-        <v>24.62228871711445</v>
+        <v>24.62228871711442</v>
       </c>
       <c r="I45">
-        <v>2.504400581278029E-09</v>
+        <v>2.504400581278017E-09</v>
       </c>
       <c r="J45">
-        <v>2.427360386750888E-09</v>
+        <v>2.427360386750869E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003008627211836377</v>
+        <v>0.0003008627211836392</v>
       </c>
       <c r="L45">
-        <v>0.08347954450654164</v>
+        <v>0.0834795445065418</v>
       </c>
       <c r="M45">
-        <v>637.6592199519201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.0834795445065418</v>
+      </c>
+      <c r="N45">
+        <v>637.6592199519213</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>134.0470420565628</v>
+        <v>134.0470420565625</v>
       </c>
       <c r="B46">
-        <v>278159.6202470342</v>
+        <v>278159.6202470303</v>
       </c>
       <c r="C46">
-        <v>265.5549960482273</v>
+        <v>265.554996048224</v>
       </c>
       <c r="D46">
-        <v>26434.72733971218</v>
+        <v>26434.7273397122</v>
       </c>
       <c r="E46">
-        <v>8587.185740864579</v>
+        <v>8587.18574086461</v>
       </c>
       <c r="F46">
-        <v>7550.243036447368</v>
+        <v>7550.2430364474</v>
       </c>
       <c r="G46">
-        <v>7.469232797840236</v>
+        <v>7.469232797840238</v>
       </c>
       <c r="H46">
-        <v>24.67079255561494</v>
+        <v>24.67079255561493</v>
       </c>
       <c r="I46">
-        <v>2.583668361448332E-09</v>
+        <v>2.583668361448317E-09</v>
       </c>
       <c r="J46">
-        <v>2.532609711627509E-09</v>
+        <v>2.532609711627486E-09</v>
       </c>
       <c r="K46">
-        <v>0.0002919808154611612</v>
+        <v>0.0002919808154611628</v>
       </c>
       <c r="L46">
-        <v>0.08244883183512509</v>
+        <v>0.08244883183512527</v>
       </c>
       <c r="M46">
-        <v>631.109685681623</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.08244883183512527</v>
+      </c>
+      <c r="N46">
+        <v>631.1096856816241</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>135.5534211687355</v>
+        <v>135.5534211687352</v>
       </c>
       <c r="B47">
-        <v>304960.0911339233</v>
+        <v>304960.0911339204</v>
       </c>
       <c r="C47">
-        <v>289.1527245155476</v>
+        <v>289.1527245155454</v>
       </c>
       <c r="D47">
-        <v>26292.62736529119</v>
+        <v>26292.62736529122</v>
       </c>
       <c r="E47">
         <v>8534.215973818902</v>
       </c>
       <c r="F47">
-        <v>7491.146785390349</v>
+        <v>7491.146785390351</v>
       </c>
       <c r="G47">
-        <v>7.392676618732507</v>
+        <v>7.392676618732497</v>
       </c>
       <c r="H47">
-        <v>24.75299947954889</v>
+        <v>24.75299947954887</v>
       </c>
       <c r="I47">
-        <v>2.667346212937293E-09</v>
+        <v>2.667346212937276E-09</v>
       </c>
       <c r="J47">
-        <v>2.640706936423809E-09</v>
+        <v>2.640706936423789E-09</v>
       </c>
       <c r="K47">
-        <v>0.0002835103029122301</v>
+        <v>0.0002835103029122314</v>
       </c>
       <c r="L47">
-        <v>0.08136960450551772</v>
+        <v>0.08136960450551795</v>
       </c>
       <c r="M47">
-        <v>624.5706476442808</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.08136960450551795</v>
+      </c>
+      <c r="N47">
+        <v>624.5706476442825</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>137.0598002809083</v>
+        <v>137.059800280908</v>
       </c>
       <c r="B48">
-        <v>333641.8242620481</v>
+        <v>333641.8242620426</v>
       </c>
       <c r="C48">
-        <v>314.2850502641132</v>
+        <v>314.2850502641083</v>
       </c>
       <c r="D48">
-        <v>26149.87425527819</v>
+        <v>26149.87425527821</v>
       </c>
       <c r="E48">
         <v>8480.232630224864</v>
       </c>
       <c r="F48">
-        <v>7431.401595572336</v>
+        <v>7431.401595572342</v>
       </c>
       <c r="G48">
-        <v>7.320656098234346</v>
+        <v>7.320656098234392</v>
       </c>
       <c r="H48">
-        <v>24.86743302512365</v>
+        <v>24.86743302512363</v>
       </c>
       <c r="I48">
-        <v>2.755755423995212E-09</v>
+        <v>2.755755423995195E-09</v>
       </c>
       <c r="J48">
-        <v>2.751625233733487E-09</v>
+        <v>2.751625233733468E-09</v>
       </c>
       <c r="K48">
-        <v>0.0002754155046317201</v>
+        <v>0.0002754155046317213</v>
       </c>
       <c r="L48">
-        <v>0.08025028980976928</v>
+        <v>0.08025028980976945</v>
       </c>
       <c r="M48">
-        <v>618.0403347317406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.08025028980976945</v>
+      </c>
+      <c r="N48">
+        <v>618.0403347317415</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>138.566179393081</v>
+        <v>138.5661793930807</v>
       </c>
       <c r="B49">
-        <v>364284.2631721391</v>
+        <v>364284.2631721323</v>
       </c>
       <c r="C49">
-        <v>341.0186207516902</v>
+        <v>341.0186207516842</v>
       </c>
       <c r="D49">
-        <v>26006.35457426514</v>
+        <v>26006.35457426517</v>
       </c>
       <c r="E49">
-        <v>8425.166370273289</v>
+        <v>8425.166370273299</v>
       </c>
       <c r="F49">
-        <v>7370.949915019384</v>
+        <v>7370.949915019396</v>
       </c>
       <c r="G49">
-        <v>7.252391569756885</v>
+        <v>7.252391569756947</v>
       </c>
       <c r="H49">
-        <v>25.01287333046694</v>
+        <v>25.01287333046693</v>
       </c>
       <c r="I49">
-        <v>2.849246574540348E-09</v>
+        <v>2.849246574540323E-09</v>
       </c>
       <c r="J49">
-        <v>2.865343881943689E-09</v>
+        <v>2.865343881943662E-09</v>
       </c>
       <c r="K49">
-        <v>0.0002676646213022732</v>
+        <v>0.0002676646213022751</v>
       </c>
       <c r="L49">
-        <v>0.07910019958842752</v>
+        <v>0.07910019958842779</v>
       </c>
       <c r="M49">
-        <v>611.516412140406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.07910019958842779</v>
+      </c>
+      <c r="N49">
+        <v>611.5164121404073</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>140.0725585052538</v>
+        <v>140.0725585052535</v>
       </c>
       <c r="B50">
-        <v>396967.5420167398</v>
+        <v>396967.5420167301</v>
       </c>
       <c r="C50">
-        <v>369.4223409940728</v>
+        <v>369.422340994064</v>
       </c>
       <c r="D50">
-        <v>25861.95620146421</v>
+        <v>25861.95620146424</v>
       </c>
       <c r="E50">
-        <v>8368.949551587073</v>
+        <v>8368.949551587079</v>
       </c>
       <c r="F50">
-        <v>7309.736130264911</v>
+        <v>7309.736130264916</v>
       </c>
       <c r="G50">
-        <v>7.187215506118047</v>
+        <v>7.187215506118129</v>
       </c>
       <c r="H50">
-        <v>25.18833652346984</v>
+        <v>25.18833652346985</v>
       </c>
       <c r="I50">
-        <v>2.948202748755709E-09</v>
+        <v>2.948202748755689E-09</v>
       </c>
       <c r="J50">
-        <v>2.981849614906576E-09</v>
+        <v>2.981849614906552E-09</v>
       </c>
       <c r="K50">
-        <v>0.0002602292903813864</v>
+        <v>0.0002602292903813878</v>
       </c>
       <c r="L50">
-        <v>0.07792902154788339</v>
+        <v>0.07792902154788363</v>
       </c>
       <c r="M50">
-        <v>604.9961035355553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.07792902154788363</v>
+      </c>
+      <c r="N50">
+        <v>604.996103535556</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>141.5789376174265</v>
+        <v>141.5789376174262</v>
       </c>
       <c r="B51">
-        <v>431772.4284678252</v>
+        <v>431772.4284678177</v>
       </c>
       <c r="C51">
-        <v>399.5675678209565</v>
+        <v>399.5675678209499</v>
       </c>
       <c r="D51">
-        <v>25716.56792155243</v>
+        <v>25716.56792155245</v>
       </c>
       <c r="E51">
-        <v>8311.51580750906</v>
+        <v>8311.515807509086</v>
       </c>
       <c r="F51">
-        <v>7247.706181451373</v>
+        <v>7247.706181451394</v>
       </c>
       <c r="G51">
-        <v>7.124558285837282</v>
+        <v>7.124558285837367</v>
       </c>
       <c r="H51">
-        <v>25.39305713468214</v>
+        <v>25.39305713468218</v>
       </c>
       <c r="I51">
-        <v>3.053043155356419E-09</v>
+        <v>3.053043155356401E-09</v>
       </c>
       <c r="J51">
-        <v>3.101137894409154E-09</v>
+        <v>3.101137894409129E-09</v>
       </c>
       <c r="K51">
-        <v>0.0002530842024292453</v>
+        <v>0.0002530842024292466</v>
       </c>
       <c r="L51">
-        <v>0.07674626148795374</v>
+        <v>0.07674626148795398</v>
       </c>
       <c r="M51">
-        <v>598.4762965214599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.07674626148795398</v>
+      </c>
+      <c r="N51">
+        <v>598.4762965214603</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>143.0853167295992</v>
+        <v>143.085316729599</v>
       </c>
       <c r="B52">
-        <v>468780.271306977</v>
+        <v>468780.2713069737</v>
       </c>
       <c r="C52">
-        <v>431.5283291874335</v>
+        <v>431.5283291874313</v>
       </c>
       <c r="D52">
-        <v>25570.07902685015</v>
+        <v>25570.07902685018</v>
       </c>
       <c r="E52">
-        <v>8252.799638844817</v>
+        <v>8252.799638844819</v>
       </c>
       <c r="F52">
-        <v>7184.807195337071</v>
+        <v>7184.807195337073</v>
       </c>
       <c r="G52">
-        <v>7.063935651668491</v>
+        <v>7.063935651668515</v>
       </c>
       <c r="H52">
-        <v>25.62647332823746</v>
+        <v>25.6264733282374</v>
       </c>
       <c r="I52">
-        <v>3.164227215903023E-09</v>
+        <v>3.164227215903E-09</v>
       </c>
       <c r="J52">
-        <v>3.223214103825819E-09</v>
+        <v>3.223214103825797E-09</v>
       </c>
       <c r="K52">
-        <v>0.0002462067654442157</v>
+        <v>0.000246206765444217</v>
       </c>
       <c r="L52">
-        <v>0.07556071203308923</v>
+        <v>0.07556071203308948</v>
       </c>
       <c r="M52">
-        <v>591.9536327446249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.07556071203308948</v>
+      </c>
+      <c r="N52">
+        <v>591.953632744626</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>144.591695841772</v>
+        <v>144.5916958417717</v>
       </c>
       <c r="B53">
-        <v>508072.9531335295</v>
+        <v>508072.9531335254</v>
       </c>
       <c r="C53">
-        <v>465.3815718626952</v>
+        <v>465.3815718626925</v>
       </c>
       <c r="D53">
-        <v>25422.37892870016</v>
+        <v>25422.37892870019</v>
       </c>
       <c r="E53">
-        <v>8192.736014077003</v>
+        <v>8192.736014077007</v>
       </c>
       <c r="F53">
-        <v>7120.987131571987</v>
+        <v>7120.987131571991</v>
       </c>
       <c r="G53">
-        <v>7.00493770158138</v>
+        <v>7.00493770158142</v>
       </c>
       <c r="H53">
-        <v>25.88821476881138</v>
+        <v>25.88821476881134</v>
       </c>
       <c r="I53">
-        <v>3.282259191688151E-09</v>
+        <v>3.282259191688128E-09</v>
       </c>
       <c r="J53">
-        <v>3.34809466496538E-09</v>
+        <v>3.348094664965355E-09</v>
       </c>
       <c r="K53">
-        <v>0.0002395768084825096</v>
+        <v>0.000239576808482511</v>
       </c>
       <c r="L53">
-        <v>0.07438001792787625</v>
+        <v>0.07438001792787649</v>
       </c>
       <c r="M53">
-        <v>585.4245840946968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.07438001792787649</v>
+      </c>
+      <c r="N53">
+        <v>585.4245840946976</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>146.0980749539448</v>
+        <v>146.0980749539444</v>
       </c>
       <c r="B54">
-        <v>549732.848669891</v>
+        <v>549732.8486698815</v>
       </c>
       <c r="C54">
-        <v>501.207441380781</v>
+        <v>501.2074413807729</v>
       </c>
       <c r="D54">
-        <v>25273.35677601755</v>
+        <v>25273.35677601759</v>
       </c>
       <c r="E54">
-        <v>8131.259973204067</v>
+        <v>8131.259973204079</v>
       </c>
       <c r="F54">
-        <v>7056.194437758578</v>
+        <v>7056.19443775859</v>
       </c>
       <c r="G54">
-        <v>6.947219260798488</v>
+        <v>6.94721926079851</v>
       </c>
       <c r="H54">
-        <v>26.17809297021992</v>
+        <v>26.17809297021982</v>
       </c>
       <c r="I54">
-        <v>3.407693431848036E-09</v>
+        <v>3.407693431848001E-09</v>
       </c>
       <c r="J54">
-        <v>3.475808083191849E-09</v>
+        <v>3.475808083191817E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002331763177683409</v>
+        <v>0.0002331763177683426</v>
       </c>
       <c r="L54">
-        <v>0.07321038564113407</v>
+        <v>0.07321038564113433</v>
       </c>
       <c r="M54">
-        <v>578.8855164994267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.07321038564113433</v>
+      </c>
+      <c r="N54">
+        <v>578.8855164994283</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>147.6044540661175</v>
+        <v>147.6044540661172</v>
       </c>
       <c r="B55">
-        <v>593842.7891964159</v>
+        <v>593842.7891963997</v>
       </c>
       <c r="C55">
-        <v>539.0895987866917</v>
+        <v>539.0895987866767</v>
       </c>
       <c r="D55">
-        <v>25122.90107906391</v>
+        <v>25122.90107906394</v>
       </c>
       <c r="E55">
-        <v>8068.306230457838</v>
+        <v>8068.306230457863</v>
       </c>
       <c r="F55">
-        <v>6990.377708926803</v>
+        <v>6990.377708926823</v>
       </c>
       <c r="G55">
-        <v>6.890491493223009</v>
+        <v>6.890491493223039</v>
       </c>
       <c r="H55">
-        <v>26.49609400127936</v>
+        <v>26.49609400127931</v>
       </c>
       <c r="I55">
-        <v>3.541140339882145E-09</v>
+        <v>3.541140339882119E-09</v>
       </c>
       <c r="J55">
-        <v>3.606395928402049E-09</v>
+        <v>3.606395928402021E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002269892000279352</v>
+        <v>0.0002269892000279365</v>
       </c>
       <c r="L55">
-        <v>0.07205645411794299</v>
+        <v>0.07205645411794324</v>
       </c>
       <c r="M55">
-        <v>572.3327427703554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.07205645411794324</v>
+      </c>
+      <c r="N55">
+        <v>572.3327427703563</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>149.1108331782902</v>
+        <v>149.1108331782899</v>
       </c>
       <c r="B56">
-        <v>640486.0337098828</v>
+        <v>640486.033709878</v>
       </c>
       <c r="C56">
-        <v>579.1155794556528</v>
+        <v>579.1155794556497</v>
       </c>
       <c r="D56">
-        <v>24970.89933656007</v>
+        <v>24970.8993365601</v>
       </c>
       <c r="E56">
-        <v>8003.808771223273</v>
+        <v>8003.808771223274</v>
       </c>
       <c r="F56">
         <v>6923.485347127008</v>
       </c>
       <c r="G56">
-        <v>6.834514621042975</v>
+        <v>6.834514621042985</v>
       </c>
       <c r="H56">
-        <v>26.84237345703667</v>
+        <v>26.84237345703664</v>
       </c>
       <c r="I56">
-        <v>3.683273173251746E-09</v>
+        <v>3.683273173251725E-09</v>
       </c>
       <c r="J56">
-        <v>3.739913761415062E-09</v>
+        <v>3.739913761415035E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002210010689774014</v>
+        <v>0.0002210010689774026</v>
       </c>
       <c r="L56">
-        <v>0.0709213140210679</v>
+        <v>0.07092131402106808</v>
       </c>
       <c r="M56">
-        <v>565.7625658703108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.07092131402106808</v>
+      </c>
+      <c r="N56">
+        <v>565.7625658703118</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>150.617212290463</v>
+        <v>150.6172122904627</v>
       </c>
       <c r="B57">
-        <v>689746.2474712533</v>
+        <v>689746.2474712365</v>
       </c>
       <c r="C57">
-        <v>621.3772001187135</v>
+        <v>621.3772001186981</v>
       </c>
       <c r="D57">
-        <v>24817.23766428989</v>
+        <v>24817.23766428992</v>
       </c>
       <c r="E57">
-        <v>7937.700438519601</v>
+        <v>7937.700438519631</v>
       </c>
       <c r="F57">
-        <v>6855.465216879393</v>
+        <v>6855.465216879418</v>
       </c>
       <c r="G57">
-        <v>6.77909163203537</v>
+        <v>6.779091632035342</v>
       </c>
       <c r="H57">
-        <v>27.21725363881181</v>
+        <v>27.21725363881172</v>
       </c>
       <c r="I57">
-        <v>3.834835811859772E-09</v>
+        <v>3.834835811859748E-09</v>
       </c>
       <c r="J57">
-        <v>3.876432016830463E-09</v>
+        <v>3.876432016830434E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002151990518245514</v>
+        <v>0.0002151990518245527</v>
       </c>
       <c r="L57">
-        <v>0.06980664223012102</v>
+        <v>0.06980664223012122</v>
       </c>
       <c r="M57">
-        <v>559.1713138612546</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.06980664223012122</v>
+      </c>
+      <c r="N57">
+        <v>559.171313861256</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>152.1235914026358</v>
+        <v>152.1235914026354</v>
       </c>
       <c r="B58">
-        <v>741707.4886878759</v>
+        <v>741707.4886878714</v>
       </c>
       <c r="C58">
-        <v>665.9710212078388</v>
+        <v>665.9710212078362</v>
       </c>
       <c r="D58">
-        <v>24661.80042335953</v>
+        <v>24661.80042335957</v>
       </c>
       <c r="E58">
-        <v>7869.912504403391</v>
+        <v>7869.912504403404</v>
       </c>
       <c r="F58">
-        <v>6786.264292211757</v>
+        <v>6786.26429221177</v>
       </c>
       <c r="G58">
-        <v>6.72406286478899</v>
+        <v>6.724062864789014</v>
       </c>
       <c r="H58">
-        <v>27.62122292529921</v>
+        <v>27.62122292529918</v>
       </c>
       <c r="I58">
-        <v>3.996651656860694E-09</v>
+        <v>3.996651656860663E-09</v>
       </c>
       <c r="J58">
-        <v>4.016036854522067E-09</v>
+        <v>4.016036854522036E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002095716133624201</v>
+        <v>0.0002095716133624215</v>
       </c>
       <c r="L58">
-        <v>0.06871290957303394</v>
+        <v>0.06871290957303412</v>
       </c>
       <c r="M58">
-        <v>552.5553676648447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.06871290957303412</v>
+      </c>
+      <c r="N58">
+        <v>552.5553676648459</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>153.6299705148085</v>
+        <v>153.6299705148082</v>
       </c>
       <c r="B59">
-        <v>796454.2041640973</v>
+        <v>796454.2041640802</v>
       </c>
       <c r="C59">
-        <v>712.9988727579826</v>
+        <v>712.9988727579671</v>
       </c>
       <c r="D59">
-        <v>24504.46984625763</v>
+        <v>24504.46984625767</v>
       </c>
       <c r="E59">
-        <v>7800.374221623209</v>
+        <v>7800.37422162324</v>
       </c>
       <c r="F59">
-        <v>6715.828290969042</v>
+        <v>6715.828290969069</v>
       </c>
       <c r="G59">
-        <v>6.669301372494387</v>
+        <v>6.669301372494425</v>
       </c>
       <c r="H59">
-        <v>28.05493736025889</v>
+        <v>28.05493736025885</v>
       </c>
       <c r="I59">
-        <v>4.169633852520762E-09</v>
+        <v>4.169633852520728E-09</v>
       </c>
       <c r="J59">
-        <v>4.158830992742307E-09</v>
+        <v>4.158830992742274E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002041083957820913</v>
+        <v>0.0002041083957820926</v>
       </c>
       <c r="L59">
-        <v>0.06763962132720108</v>
+        <v>0.06763962132720132</v>
       </c>
       <c r="M59">
-        <v>545.9111826374307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.06763962132720132</v>
+      </c>
+      <c r="N59">
+        <v>545.9111826374317</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>155.1363496269813</v>
+        <v>155.1363496269809</v>
       </c>
       <c r="B60">
-        <v>854071.234849772</v>
+        <v>854071.234849753</v>
       </c>
       <c r="C60">
-        <v>762.5684533909858</v>
+        <v>762.5684533909684</v>
       </c>
       <c r="D60">
-        <v>24345.12565880586</v>
+        <v>24345.1256588059</v>
       </c>
       <c r="E60">
-        <v>7729.012350789833</v>
+        <v>7729.012350789844</v>
       </c>
       <c r="F60">
-        <v>6644.101291984927</v>
+        <v>6644.101291984941</v>
       </c>
       <c r="G60">
-        <v>6.614708975940608</v>
+        <v>6.614708975940585</v>
       </c>
       <c r="H60">
-        <v>28.51922453140371</v>
+        <v>28.51922453140353</v>
       </c>
       <c r="I60">
-        <v>4.354797062162474E-09</v>
+        <v>4.354797062162418E-09</v>
       </c>
       <c r="J60">
-        <v>4.30493453641236E-09</v>
+        <v>4.304934536412326E-09</v>
       </c>
       <c r="K60">
-        <v>0.000198800072750647</v>
+        <v>0.0001988000727506483</v>
       </c>
       <c r="L60">
-        <v>0.06658555817429396</v>
+        <v>0.06658555817429419</v>
       </c>
       <c r="M60">
-        <v>539.2353048321962</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.06658555817429419</v>
+      </c>
+      <c r="N60">
+        <v>539.2353048321986</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>156.642728739154</v>
+        <v>156.6427287391536</v>
       </c>
       <c r="B61">
-        <v>914643.8323190094</v>
+        <v>914643.8323189968</v>
       </c>
       <c r="C61">
-        <v>814.7940133818506</v>
+        <v>814.7940133818404</v>
       </c>
       <c r="D61">
-        <v>24183.64469598672</v>
+        <v>24183.64469598676</v>
       </c>
       <c r="E61">
-        <v>7655.750658224026</v>
+        <v>7655.750658224038</v>
       </c>
       <c r="F61">
-        <v>6571.025330564239</v>
+        <v>6571.025330564255</v>
       </c>
       <c r="G61">
-        <v>6.560212925799876</v>
+        <v>6.560212925799873</v>
       </c>
       <c r="H61">
-        <v>29.01508987177524</v>
+        <v>29.01508987177511</v>
       </c>
       <c r="I61">
-        <v>4.553271076409736E-09</v>
+        <v>4.553271076409682E-09</v>
       </c>
       <c r="J61">
-        <v>4.454485814658939E-09</v>
+        <v>4.454485814658901E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001936382166153906</v>
+        <v>0.0001936382166153918</v>
       </c>
       <c r="L61">
-        <v>0.0655489959583659</v>
+        <v>0.06554899595836618</v>
       </c>
       <c r="M61">
-        <v>532.5243826975723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.06554899595836618</v>
+      </c>
+      <c r="N61">
+        <v>532.5243826975743</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>158.1491078513267</v>
+        <v>158.1491078513264</v>
       </c>
       <c r="B62">
-        <v>978257.6873190089</v>
+        <v>978257.6873189926</v>
       </c>
       <c r="C62">
-        <v>869.7971344977052</v>
+        <v>869.7971344976911</v>
       </c>
       <c r="D62">
-        <v>24019.9005094738</v>
+        <v>24019.90050947384</v>
       </c>
       <c r="E62">
-        <v>7580.509379507155</v>
+        <v>7580.509379507173</v>
       </c>
       <c r="F62">
-        <v>6496.539967533332</v>
+        <v>6496.539967533352</v>
       </c>
       <c r="G62">
-        <v>6.505763103132281</v>
+        <v>6.505763103132286</v>
       </c>
       <c r="H62">
-        <v>29.5437255815754</v>
+        <v>29.54372558157525</v>
       </c>
       <c r="I62">
-        <v>4.766316590362789E-09</v>
+        <v>4.76631659036273E-09</v>
       </c>
       <c r="J62">
-        <v>4.60764224212317E-09</v>
+        <v>4.607642242123131E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001886151778307558</v>
+        <v>0.0001886151778307572</v>
       </c>
       <c r="L62">
-        <v>0.06452789272717845</v>
+        <v>0.06452789272717871</v>
       </c>
       <c r="M62">
-        <v>525.7751748447344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.06452789272717871</v>
+      </c>
+      <c r="N62">
+        <v>525.7751748447363</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>159.6554869634995</v>
+        <v>159.6554869634991</v>
       </c>
       <c r="B63">
-        <v>1044998.971639559</v>
+        <v>1044998.97163954</v>
       </c>
       <c r="C63">
-        <v>927.7076212344018</v>
+        <v>927.7076212343846</v>
       </c>
       <c r="D63">
-        <v>23853.76296445177</v>
+        <v>23853.76296445181</v>
       </c>
       <c r="E63">
-        <v>7503.20464358358</v>
+        <v>7503.204643583586</v>
       </c>
       <c r="F63">
-        <v>6420.581826866501</v>
+        <v>6420.581826866505</v>
       </c>
       <c r="G63">
-        <v>6.451329695230148</v>
+        <v>6.451329695230189</v>
       </c>
       <c r="H63">
-        <v>30.10652244815226</v>
+        <v>30.10652244815216</v>
       </c>
       <c r="I63">
-        <v>4.995343559050338E-09</v>
+        <v>4.995343559050284E-09</v>
       </c>
       <c r="J63">
-        <v>4.764581219101122E-09</v>
+        <v>4.764581219101082E-09</v>
       </c>
       <c r="K63">
-        <v>0.000183723975877374</v>
+        <v>0.0001837239758773751</v>
       </c>
       <c r="L63">
-        <v>0.06352003948250386</v>
+        <v>0.06352003948250406</v>
       </c>
       <c r="M63">
-        <v>518.9845544093098</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.06352003948250406</v>
+      </c>
+      <c r="N63">
+        <v>518.984554409311</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>161.1618660756722</v>
+        <v>161.1618660756719</v>
       </c>
       <c r="B64">
-        <v>1114954.394664642</v>
+        <v>1114954.394664608</v>
       </c>
       <c r="C64">
-        <v>988.6645202879258</v>
+        <v>988.6645202878925</v>
       </c>
       <c r="D64">
-        <v>23685.09782297723</v>
+        <v>23685.09782297728</v>
       </c>
       <c r="E64">
-        <v>7423.747852053079</v>
+        <v>7423.747852053115</v>
       </c>
       <c r="F64">
-        <v>6343.084096588508</v>
+        <v>6343.084096588544</v>
       </c>
       <c r="G64">
-        <v>6.396901291482598</v>
+        <v>6.396901291482629</v>
       </c>
       <c r="H64">
-        <v>30.70508493869097</v>
+        <v>30.70508493869073</v>
       </c>
       <c r="I64">
-        <v>5.241932631560012E-09</v>
+        <v>5.241932631559915E-09</v>
       </c>
       <c r="J64">
-        <v>4.925501086270889E-09</v>
+        <v>4.925501086270844E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001789582010676682</v>
+        <v>0.0001789582010676696</v>
       </c>
       <c r="L64">
-        <v>0.06252317636373984</v>
+        <v>0.06252317636374016</v>
       </c>
       <c r="M64">
-        <v>512.1495104330373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.06252317636374016</v>
+      </c>
+      <c r="N64">
+        <v>512.1495104330398</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>162.668245187845</v>
+        <v>162.6682451878446</v>
       </c>
       <c r="B65">
-        <v>1188211.276073712</v>
+        <v>1188211.276073695</v>
       </c>
       <c r="C65">
-        <v>1052.817287621167</v>
+        <v>1052.817287621153</v>
       </c>
       <c r="D65">
-        <v>23513.7663106667</v>
+        <v>23513.76631066676</v>
       </c>
       <c r="E65">
-        <v>7342.045008048036</v>
+        <v>7342.045008048056</v>
       </c>
       <c r="F65">
-        <v>6263.975987281497</v>
+        <v>6263.975987281518</v>
       </c>
       <c r="G65">
-        <v>6.342483350838406</v>
+        <v>6.34248335083839</v>
       </c>
       <c r="H65">
-        <v>31.34125005933719</v>
+        <v>31.34125005933699</v>
       </c>
       <c r="I65">
-        <v>5.507860278943633E-09</v>
+        <v>5.507860278943532E-09</v>
       </c>
       <c r="J65">
-        <v>5.090622150714958E-09</v>
+        <v>5.090622150714906E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001743119267200087</v>
+        <v>0.0001743119267200103</v>
       </c>
       <c r="L65">
-        <v>0.06153507891347838</v>
+        <v>0.06153507891347874</v>
       </c>
       <c r="M65">
-        <v>505.2671466003562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.06153507891347874</v>
+      </c>
+      <c r="N65">
+        <v>505.2671466003595</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>164.1746243000177</v>
+        <v>164.1746243000173</v>
       </c>
       <c r="B66">
-        <v>1264857.636256489</v>
+        <v>1264857.636256442</v>
       </c>
       <c r="C66">
-        <v>1120.327125354951</v>
+        <v>1120.327125354904</v>
       </c>
       <c r="D66">
-        <v>23339.62466286564</v>
+        <v>23339.62466286568</v>
       </c>
       <c r="E66">
-        <v>7257.995988824539</v>
+        <v>7257.99598882459</v>
       </c>
       <c r="F66">
-        <v>6183.182142087623</v>
+        <v>6183.182142087665</v>
       </c>
       <c r="G66">
-        <v>6.288096998736815</v>
+        <v>6.288096998736836</v>
       </c>
       <c r="H66">
-        <v>32.01711062288863</v>
+        <v>32.01711062288843</v>
       </c>
       <c r="I66">
-        <v>5.795128376379178E-09</v>
+        <v>5.795128376379112E-09</v>
       </c>
       <c r="J66">
-        <v>5.260187801265195E-09</v>
+        <v>5.260187801265157E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001697796312424254</v>
+        <v>0.0001697796312424265</v>
       </c>
       <c r="L66">
-        <v>0.06055362021221745</v>
+        <v>0.06055362021221765</v>
       </c>
       <c r="M66">
-        <v>498.3346775817437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.06055362021221765</v>
+      </c>
+      <c r="N66">
+        <v>498.3346775817449</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>165.6810034121905</v>
+        <v>165.6810034121901</v>
       </c>
       <c r="B67">
-        <v>1344982.306081993</v>
+        <v>1344982.306081983</v>
       </c>
       <c r="C67">
-        <v>1191.368513951184</v>
+        <v>1191.368513951179</v>
       </c>
       <c r="D67">
-        <v>23162.5236456023</v>
+        <v>23162.52364560236</v>
       </c>
       <c r="E67">
-        <v>7171.493755931479</v>
+        <v>7171.49375593149</v>
       </c>
       <c r="F67">
-        <v>6100.621991604364</v>
+        <v>6100.621991604382</v>
       </c>
       <c r="G67">
-        <v>6.233778117066941</v>
+        <v>6.233778117067006</v>
       </c>
       <c r="H67">
-        <v>32.73504375378705</v>
+        <v>32.73504375378673</v>
       </c>
       <c r="I67">
-        <v>6.105999185546985E-09</v>
+        <v>6.10599918554685E-09</v>
       </c>
       <c r="J67">
-        <v>5.434465733006077E-09</v>
+        <v>5.434465733006023E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001653561297037224</v>
+        <v>0.000165356129703724</v>
       </c>
       <c r="L67">
-        <v>0.05957681464424923</v>
+        <v>0.05957681464424958</v>
       </c>
       <c r="M67">
-        <v>491.3494231599126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.05957681464424958</v>
+      </c>
+      <c r="N67">
+        <v>491.349423159915</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>167.1873825243632</v>
+        <v>167.1873825243628</v>
       </c>
       <c r="B68">
-        <v>1428675.057707363</v>
+        <v>1428675.057707353</v>
       </c>
       <c r="C68">
-        <v>1266.1309687771</v>
+        <v>1266.130968777095</v>
       </c>
       <c r="D68">
-        <v>22982.30804549496</v>
+        <v>22982.30804549502</v>
       </c>
       <c r="E68">
-        <v>7082.423496592559</v>
+        <v>7082.423496592576</v>
       </c>
       <c r="F68">
-        <v>6016.209046529679</v>
+        <v>6016.209046529699</v>
       </c>
       <c r="G68">
-        <v>6.179576695851856</v>
+        <v>6.179576695851859</v>
       </c>
       <c r="H68">
-        <v>33.49774569584717</v>
+        <v>33.49774569584686</v>
       </c>
       <c r="I68">
-        <v>6.443036921399093E-09</v>
+        <v>6.443036921398963E-09</v>
       </c>
       <c r="J68">
-        <v>5.613749303223058E-09</v>
+        <v>5.613749303223001E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001610365144895393</v>
+        <v>0.0001610365144895407</v>
       </c>
       <c r="L68">
-        <v>0.05860284838244072</v>
+        <v>0.05860284838244104</v>
       </c>
       <c r="M68">
-        <v>484.3088002459481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.05860284838244104</v>
+      </c>
+      <c r="N68">
+        <v>484.3088002459509</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>168.693761636536</v>
+        <v>168.6937616365356</v>
       </c>
       <c r="B69">
-        <v>1516026.758106554</v>
+        <v>1516026.758106536</v>
       </c>
       <c r="C69">
-        <v>1344.821054125553</v>
+        <v>1344.821054125537</v>
       </c>
       <c r="D69">
-        <v>22798.81612127505</v>
+        <v>22798.8161212751</v>
       </c>
       <c r="E69">
-        <v>6990.661689807812</v>
+        <v>6990.661689807835</v>
       </c>
       <c r="F69">
-        <v>5929.850120362978</v>
+        <v>5929.850120363002</v>
       </c>
       <c r="G69">
-        <v>6.125556419981745</v>
+        <v>6.125556419981778</v>
       </c>
       <c r="H69">
-        <v>34.30827429072362</v>
+        <v>34.30827429072337</v>
       </c>
       <c r="I69">
-        <v>6.809157395596141E-09</v>
+        <v>6.809157395596021E-09</v>
       </c>
       <c r="J69">
-        <v>5.798359044370333E-09</v>
+        <v>5.798359044370279E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001568161046470485</v>
+        <v>0.0001568161046470497</v>
       </c>
       <c r="L69">
-        <v>0.05763010072167217</v>
+        <v>0.05763010072167247</v>
       </c>
       <c r="M69">
-        <v>477.2103128297147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.05763010072167247</v>
+      </c>
+      <c r="N69">
+        <v>477.2103128297169</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>170.2001407487087</v>
+        <v>170.2001407487083</v>
       </c>
       <c r="B70">
-        <v>1607129.546916869</v>
+        <v>1607129.546916843</v>
       </c>
       <c r="C70">
-        <v>1427.664692048286</v>
+        <v>1427.66469204826</v>
       </c>
       <c r="D70">
-        <v>22611.87900760036</v>
+        <v>22611.87900760039</v>
       </c>
       <c r="E70">
-        <v>6896.075090755369</v>
+        <v>6896.075090755402</v>
       </c>
       <c r="F70">
-        <v>5841.444473963176</v>
+        <v>5841.444473963204</v>
       </c>
       <c r="G70">
-        <v>6.071794468475049</v>
+        <v>6.071794468475073</v>
       </c>
       <c r="H70">
-        <v>35.17010088465284</v>
+        <v>35.17010088465274</v>
       </c>
       <c r="I70">
-        <v>7.207687630241389E-09</v>
+        <v>7.207687630241325E-09</v>
       </c>
       <c r="J70">
-        <v>5.988644364006358E-09</v>
+        <v>5.988644364006315E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001526904035169929</v>
+        <v>0.0001526904035169937</v>
       </c>
       <c r="L70">
-        <v>0.05665715937801479</v>
+        <v>0.05665715937801501</v>
       </c>
       <c r="M70">
-        <v>470.0515398522498</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.05665715937801501</v>
+      </c>
+      <c r="N70">
+        <v>470.0515398522508</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>171.7065198608815</v>
+        <v>171.7065198608811</v>
       </c>
       <c r="B71">
-        <v>1702077.040003602</v>
+        <v>1702077.040003576</v>
       </c>
       <c r="C71">
-        <v>1514.909807780555</v>
+        <v>1514.909807780531</v>
       </c>
       <c r="D71">
-        <v>22421.32005921525</v>
+        <v>22421.3200592153</v>
       </c>
       <c r="E71">
-        <v>6798.519627512499</v>
+        <v>6798.51962751253</v>
       </c>
       <c r="F71">
-        <v>5750.88287340844</v>
+        <v>5750.88287340847</v>
       </c>
       <c r="G71">
-        <v>6.018381507503816</v>
+        <v>6.018381507503826</v>
       </c>
       <c r="H71">
-        <v>36.08717392598223</v>
+        <v>36.08717392598196</v>
       </c>
       <c r="I71">
-        <v>7.642437862329731E-09</v>
+        <v>7.642437862329615E-09</v>
       </c>
       <c r="J71">
-        <v>6.184985467436387E-09</v>
+        <v>6.184985467436331E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001486550642368211</v>
+        <v>0.0001486550642368222</v>
       </c>
       <c r="L71">
-        <v>0.05568283192859191</v>
+        <v>0.05568283192859216</v>
       </c>
       <c r="M71">
-        <v>462.8301209369722</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.05568283192859216</v>
+      </c>
+      <c r="N71">
+        <v>462.830120936974</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>173.2128989730542</v>
+        <v>173.2128989730538</v>
       </c>
       <c r="B72">
-        <v>1800964.559773973</v>
+        <v>1800964.559773928</v>
       </c>
       <c r="C72">
-        <v>1606.829357797539</v>
+        <v>1606.829357797492</v>
       </c>
       <c r="D72">
-        <v>22226.95412007891</v>
+        <v>22226.95412007896</v>
       </c>
       <c r="E72">
-        <v>6697.839205161635</v>
+        <v>6697.839205161665</v>
       </c>
       <c r="F72">
-        <v>5658.046552557517</v>
+        <v>5658.046552557538</v>
       </c>
       <c r="G72">
-        <v>5.965421861816268</v>
+        <v>5.965421861816276</v>
       </c>
       <c r="H72">
-        <v>37.06399717512247</v>
+        <v>37.06399717512222</v>
       </c>
       <c r="I72">
-        <v>8.117789056194671E-09</v>
+        <v>8.117789056194552E-09</v>
       </c>
       <c r="J72">
-        <v>6.387795546446955E-09</v>
+        <v>6.387795546446898E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001447058626739457</v>
+        <v>0.0001447058626739468</v>
       </c>
       <c r="L72">
-        <v>0.05470615475189748</v>
+        <v>0.05470615475189773</v>
       </c>
       <c r="M72">
-        <v>455.5437398715894</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.05470615475189773</v>
+      </c>
+      <c r="N72">
+        <v>455.5437398715911</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>174.719278085227</v>
+        <v>174.7192780852265</v>
       </c>
       <c r="B73">
-        <v>1903889.392653372</v>
+        <v>1903889.392653357</v>
       </c>
       <c r="C73">
-        <v>1703.724790124616</v>
+        <v>1703.724790124607</v>
       </c>
       <c r="D73">
-        <v>22028.5866975772</v>
+        <v>22028.58669757726</v>
       </c>
       <c r="E73">
-        <v>6593.864414367812</v>
+        <v>6593.864414367841</v>
       </c>
       <c r="F73">
-        <v>5562.806072238733</v>
+        <v>5562.80607223876</v>
       </c>
       <c r="G73">
-        <v>5.913033852351719</v>
+        <v>5.913033852351742</v>
       </c>
       <c r="H73">
-        <v>38.10572631516145</v>
+        <v>38.1057263151612</v>
       </c>
       <c r="I73">
-        <v>8.638799970706265E-09</v>
+        <v>8.63879997070611E-09</v>
       </c>
       <c r="J73">
-        <v>6.597523287603524E-09</v>
+        <v>6.597523287603455E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001408386773125624</v>
+        <v>0.0001408386773125636</v>
       </c>
       <c r="L73">
-        <v>0.05372640015599104</v>
+        <v>0.05372640015599136</v>
       </c>
       <c r="M73">
-        <v>448.1901056929152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.05372640015599136</v>
+      </c>
+      <c r="N73">
+        <v>448.1901056929174</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>176.2256571973998</v>
+        <v>176.2256571973993</v>
       </c>
       <c r="B74">
-        <v>2010951.073154657</v>
+        <v>2010951.073154639</v>
       </c>
       <c r="C74">
-        <v>1805.929988549844</v>
+        <v>1805.92998854983</v>
       </c>
       <c r="D74">
-        <v>21826.0130160269</v>
+        <v>21826.01301602697</v>
       </c>
       <c r="E74">
-        <v>6486.411145044209</v>
+        <v>6486.411145044248</v>
       </c>
       <c r="F74">
-        <v>5465.020069487562</v>
+        <v>5465.020069487604</v>
       </c>
       <c r="G74">
-        <v>5.861350290829284</v>
+        <v>5.861350290829304</v>
       </c>
       <c r="H74">
-        <v>39.21828889951733</v>
+        <v>39.21828889951692</v>
       </c>
       <c r="I74">
-        <v>9.211339078480074E-09</v>
+        <v>9.21133907847985E-09</v>
       </c>
       <c r="J74">
-        <v>6.814655766899113E-09</v>
+        <v>6.81465576689904E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001370494755688856</v>
+        <v>0.000137049475568887</v>
       </c>
       <c r="L74">
-        <v>0.05274308184772637</v>
+        <v>0.05274308184772673</v>
       </c>
       <c r="M74">
-        <v>440.7669311921872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.05274308184772673</v>
+      </c>
+      <c r="N74">
+        <v>440.76693119219</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>177.7320363095725</v>
+        <v>177.732036309572</v>
       </c>
       <c r="B75">
-        <v>2122251.692463217</v>
+        <v>2122251.692463181</v>
       </c>
       <c r="C75">
-        <v>1913.815751452135</v>
+        <v>1913.815751452098</v>
       </c>
       <c r="D75">
-        <v>21619.01691592694</v>
+        <v>21619.016915927</v>
       </c>
       <c r="E75">
-        <v>6375.279111526482</v>
+        <v>6375.279111526524</v>
       </c>
       <c r="F75">
-        <v>5364.53389330855</v>
+        <v>5364.533893308582</v>
       </c>
       <c r="G75">
-        <v>5.810519125094142</v>
+        <v>5.810519125094163</v>
       </c>
       <c r="H75">
-        <v>40.40853410719755</v>
+        <v>40.40853410719733</v>
       </c>
       <c r="I75">
-        <v>9.842248332335024E-09</v>
+        <v>9.842248332334865E-09</v>
       </c>
       <c r="J75">
-        <v>7.039721815163024E-09</v>
+        <v>7.039721815162961E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001333343059446547</v>
+        <v>0.0001333343059446557</v>
       </c>
       <c r="L75">
-        <v>0.05175595848720038</v>
+        <v>0.05175595848720065</v>
       </c>
       <c r="M75">
-        <v>433.2719086267398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.05175595848720065</v>
+      </c>
+      <c r="N75">
+        <v>433.2719086267417</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>179.2384154217452</v>
+        <v>179.2384154217447</v>
       </c>
       <c r="B76">
-        <v>2237896.227205422</v>
+        <v>2237896.227205406</v>
       </c>
       <c r="C76">
-        <v>2027.794849873831</v>
+        <v>2027.794849873822</v>
       </c>
       <c r="D76">
-        <v>21407.3695551998</v>
+        <v>21407.36955519987</v>
       </c>
       <c r="E76">
-        <v>6260.250304821597</v>
+        <v>6260.250304821637</v>
       </c>
       <c r="F76">
-        <v>5261.178128916847</v>
+        <v>5261.178128916888</v>
       </c>
       <c r="G76">
-        <v>5.760704232185001</v>
+        <v>5.760704232185033</v>
       </c>
       <c r="H76">
-        <v>41.68442084564055</v>
+        <v>41.68442084564009</v>
       </c>
       <c r="I76">
-        <v>1.053954810255091E-08</v>
+        <v>1.053954810255066E-08</v>
       </c>
       <c r="J76">
-        <v>7.273295962035552E-09</v>
+        <v>7.273295962035472E-09</v>
       </c>
       <c r="K76">
-        <v>0.0001296892953426142</v>
+        <v>0.0001296892953426155</v>
       </c>
       <c r="L76">
-        <v>0.05076503477397987</v>
+        <v>0.05076503477398024</v>
       </c>
       <c r="M76">
-        <v>425.7026823917191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.05076503477398024</v>
+      </c>
+      <c r="N76">
+        <v>425.7026823917213</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>180.744794533918</v>
+        <v>180.7447945339175</v>
       </c>
       <c r="B77">
-        <v>2357992.880748275</v>
+        <v>2357992.880748248</v>
       </c>
       <c r="C77">
-        <v>2148.327694889814</v>
+        <v>2148.32769488979</v>
       </c>
       <c r="D77">
-        <v>21190.82785515796</v>
+        <v>21190.82785515803</v>
       </c>
       <c r="E77">
-        <v>6141.087401423465</v>
+        <v>6141.087401423492</v>
       </c>
       <c r="F77">
-        <v>5154.767021539562</v>
+        <v>5154.767021539587</v>
       </c>
       <c r="G77">
-        <v>5.712086359788795</v>
+        <v>5.712086359788817</v>
       </c>
       <c r="H77">
-        <v>43.05525556211642</v>
+        <v>43.05525556211595</v>
       </c>
       <c r="I77">
-        <v>1.131269583496583E-08</v>
+        <v>1.131269583496557E-08</v>
       </c>
       <c r="J77">
-        <v>7.516003097531109E-09</v>
+        <v>7.516003097531033E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001261106507542468</v>
+        <v>0.000126110650754248</v>
       </c>
       <c r="L77">
-        <v>0.04977055931328113</v>
+        <v>0.04977055931328143</v>
       </c>
       <c r="M77">
-        <v>418.0568183654291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.04977055931328143</v>
+      </c>
+      <c r="N77">
+        <v>418.0568183654313</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>182.2511736460907</v>
+        <v>182.2511736460903</v>
       </c>
       <c r="B78">
-        <v>2482653.424566348</v>
+        <v>2482653.424566336</v>
       </c>
       <c r="C78">
-        <v>2275.928616329265</v>
+        <v>2275.928616329264</v>
       </c>
       <c r="D78">
-        <v>20969.13261592541</v>
+        <v>20969.13261592548</v>
       </c>
       <c r="E78">
-        <v>6017.532178756789</v>
+        <v>6017.5321787568</v>
       </c>
       <c r="F78">
-        <v>5045.096825295589</v>
+        <v>5045.096825295602</v>
       </c>
       <c r="G78">
-        <v>5.664864221320456</v>
+        <v>5.66486422132047</v>
       </c>
       <c r="H78">
-        <v>44.53199501595225</v>
+        <v>44.53199501595184</v>
       </c>
       <c r="I78">
-        <v>1.217291550244231E-08</v>
+        <v>1.217291550244202E-08</v>
       </c>
       <c r="J78">
-        <v>7.768524032126617E-09</v>
+        <v>7.768524032126536E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001225946643813004</v>
+        <v>0.0001225946643813016</v>
       </c>
       <c r="L78">
-        <v>0.04877301840130051</v>
+        <v>0.04877301840130085</v>
       </c>
       <c r="M78">
-        <v>410.331769581367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.04877301840130085</v>
+      </c>
+      <c r="N78">
+        <v>410.3317695813697</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>183.7575527582635</v>
+        <v>183.757552758263</v>
       </c>
       <c r="B79">
-        <v>2611993.52034434</v>
+        <v>2611993.520344305</v>
       </c>
       <c r="C79">
-        <v>2411.172706475696</v>
+        <v>2411.172706475662</v>
       </c>
       <c r="D79">
-        <v>20742.00620182633</v>
+        <v>20742.0062018264</v>
       </c>
       <c r="E79">
-        <v>5889.30401673284</v>
+        <v>5889.304016732865</v>
       </c>
       <c r="F79">
-        <v>4931.944124573613</v>
+        <v>4931.944124573639</v>
       </c>
       <c r="G79">
-        <v>5.619255756028717</v>
+        <v>5.619255756028707</v>
       </c>
       <c r="H79">
-        <v>46.12763470280486</v>
+        <v>46.12763470280414</v>
       </c>
       <c r="I79">
-        <v>1.313362134042897E-08</v>
+        <v>1.313362134042861E-08</v>
       </c>
       <c r="J79">
-        <v>8.031602193036287E-09</v>
+        <v>8.031602193036206E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001191377210585763</v>
+        <v>0.0001191377210585773</v>
       </c>
       <c r="L79">
-        <v>0.04777312484070281</v>
+        <v>0.04777312484070313</v>
       </c>
       <c r="M79">
-        <v>402.5248377761334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.04777312484070313</v>
+      </c>
+      <c r="N79">
+        <v>402.5248377761362</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>185.2639318704362</v>
+        <v>185.2639318704358</v>
       </c>
       <c r="B80">
-        <v>2746132.993815008</v>
+        <v>2746132.993814926</v>
       </c>
       <c r="C80">
-        <v>2554.703103964197</v>
+        <v>2554.703103964089</v>
       </c>
       <c r="D80">
-        <v>20509.14966428231</v>
+        <v>20509.14966428238</v>
       </c>
       <c r="E80">
-        <v>5756.098605461118</v>
+        <v>5756.098605461187</v>
       </c>
       <c r="F80">
-        <v>4815.064207228951</v>
+        <v>4815.064207229006</v>
       </c>
       <c r="G80">
-        <v>5.575499574135075</v>
+        <v>5.575499574135105</v>
       </c>
       <c r="H80">
-        <v>47.85771133663106</v>
+        <v>47.85771133663054</v>
       </c>
       <c r="I80">
-        <v>1.42109685904207E-08</v>
+        <v>1.421096859042035E-08</v>
       </c>
       <c r="J80">
-        <v>8.306051771859259E-09</v>
+        <v>8.306051771859178E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001157363065927143</v>
+        <v>0.0001157363065927153</v>
       </c>
       <c r="L80">
-        <v>0.04677180094023745</v>
+        <v>0.04677180094023776</v>
       </c>
       <c r="M80">
-        <v>394.6331301783387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.04677180094023776</v>
+      </c>
+      <c r="N80">
+        <v>394.633130178341</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>186.770310982609</v>
+        <v>186.7703109826085</v>
       </c>
       <c r="B81">
-        <v>2885196.017978997</v>
+        <v>2885196.017978968</v>
       </c>
       <c r="C81">
-        <v>2707.238472768497</v>
+        <v>2707.238472768474</v>
       </c>
       <c r="D81">
-        <v>20270.23912423757</v>
+        <v>20270.23912423765</v>
       </c>
       <c r="E81">
-        <v>5617.587032374083</v>
+        <v>5617.58703237411</v>
       </c>
       <c r="F81">
-        <v>4694.189613290407</v>
+        <v>4694.189613290434</v>
       </c>
       <c r="G81">
-        <v>5.533856619570325</v>
+        <v>5.533856619570318</v>
       </c>
       <c r="H81">
-        <v>49.74095891535265</v>
+        <v>49.74095891535187</v>
       </c>
       <c r="I81">
-        <v>1.542457745707804E-08</v>
+        <v>1.542457745707757E-08</v>
       </c>
       <c r="J81">
-        <v>8.592767745989086E-09</v>
+        <v>8.592767745988985E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001123870153025756</v>
+        <v>0.0001123870153025768</v>
       </c>
       <c r="L81">
-        <v>0.04577015495343814</v>
+        <v>0.04577015495343849</v>
       </c>
       <c r="M81">
-        <v>386.6535105782992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.04577015495343849</v>
+      </c>
+      <c r="N81">
+        <v>386.6535105783023</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>188.2766900947817</v>
+        <v>188.2766900947812</v>
       </c>
       <c r="B82">
-        <v>3029311.145314914</v>
+        <v>3029311.145314841</v>
       </c>
       <c r="C82">
-        <v>2869.580255935142</v>
+        <v>2869.580255935045</v>
       </c>
       <c r="D82">
-        <v>20024.92117228089</v>
+        <v>20024.92117228099</v>
       </c>
       <c r="E82">
-        <v>5473.415486822396</v>
+        <v>5473.41548682248</v>
       </c>
       <c r="F82">
-        <v>4569.029040939718</v>
+        <v>4569.029040939789</v>
       </c>
       <c r="G82">
-        <v>5.494612101524431</v>
+        <v>5.494612101524448</v>
       </c>
       <c r="H82">
-        <v>51.80017421298982</v>
+        <v>51.80017421298906</v>
       </c>
       <c r="I82">
-        <v>1.679849649676156E-08</v>
+        <v>1.679849649676099E-08</v>
       </c>
       <c r="J82">
-        <v>8.892738346453876E-09</v>
+        <v>8.89273834645375E-09</v>
       </c>
       <c r="K82">
-        <v>0.000109086554616484</v>
+        <v>0.0001090865546164853</v>
       </c>
       <c r="L82">
-        <v>0.04476945035086661</v>
+        <v>0.04476945035086701</v>
       </c>
       <c r="M82">
-        <v>378.5825431564772</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.04476945035086701</v>
+      </c>
+      <c r="N82">
+        <v>378.5825431564806</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>189.7830692069545</v>
+        <v>189.783069206954</v>
       </c>
       <c r="B83">
-        <v>3178611.104986323</v>
+        <v>3178611.104986282</v>
       </c>
       <c r="C83">
-        <v>3042.619044069505</v>
+        <v>3042.619044069462</v>
       </c>
       <c r="D83">
-        <v>19772.80695354908</v>
+        <v>19772.80695354916</v>
       </c>
       <c r="E83">
-        <v>5323.205889203941</v>
+        <v>5323.205889203972</v>
       </c>
       <c r="F83">
-        <v>4439.266860658749</v>
+        <v>4439.266860658776</v>
       </c>
       <c r="G83">
-        <v>5.458077774272649</v>
+        <v>5.45807777427266</v>
       </c>
       <c r="H83">
-        <v>54.06337195037554</v>
+        <v>54.06337195037472</v>
       </c>
       <c r="I83">
-        <v>1.836250190342794E-08</v>
+        <v>1.836250190342742E-08</v>
       </c>
       <c r="J83">
-        <v>9.207060758800983E-09</v>
+        <v>9.20706075880088E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001058317440141578</v>
+        <v>0.0001058317440141588</v>
       </c>
       <c r="L83">
-        <v>0.04377106746978648</v>
+        <v>0.04377106746978678</v>
       </c>
       <c r="M83">
-        <v>370.4164266016311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.04377106746978678</v>
+      </c>
+      <c r="N83">
+        <v>370.4164266016336</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>191.2894483191272</v>
+        <v>191.2894483191267</v>
       </c>
       <c r="B84">
-        <v>3333232.251555666</v>
+        <v>3333232.25155562</v>
       </c>
       <c r="C84">
-        <v>3227.339099074876</v>
+        <v>3227.339099074822</v>
       </c>
       <c r="D84">
-        <v>19513.46447235012</v>
+        <v>19513.46447235017</v>
       </c>
       <c r="E84">
-        <v>5166.557804397953</v>
+        <v>5166.557804397978</v>
       </c>
       <c r="F84">
-        <v>4304.56355697574</v>
+        <v>4304.563556975758</v>
       </c>
       <c r="G84">
-        <v>5.424594687877105</v>
+        <v>5.424594687877121</v>
       </c>
       <c r="H84">
-        <v>56.565347187834</v>
+        <v>56.5653471878335</v>
       </c>
       <c r="I84">
-        <v>2.015387580313403E-08</v>
+        <v>2.015387580313363E-08</v>
       </c>
       <c r="J84">
-        <v>9.536961153395902E-09</v>
+        <v>9.536961153395819E-09</v>
       </c>
       <c r="K84">
-        <v>0.000102619504843635</v>
+        <v>0.0001026195048436357</v>
       </c>
       <c r="L84">
-        <v>0.04277645720424528</v>
+        <v>0.0427764572042455</v>
       </c>
       <c r="M84">
-        <v>362.1509144955848</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.0427764572042455</v>
+      </c>
+      <c r="N84">
+        <v>362.1509144955866</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>192.7958274313</v>
+        <v>192.7958274312995</v>
       </c>
       <c r="B85">
-        <v>3493313.517422187</v>
+        <v>3493313.517422172</v>
       </c>
       <c r="C85">
-        <v>3424.819754604929</v>
+        <v>3424.819754604938</v>
       </c>
       <c r="D85">
-        <v>19246.40845657507</v>
+        <v>19246.4084565752</v>
       </c>
       <c r="E85">
-        <v>5003.051990591766</v>
+        <v>5003.051990591787</v>
       </c>
       <c r="F85">
-        <v>4164.557455252439</v>
+        <v>4164.557455252468</v>
       </c>
       <c r="G85">
-        <v>5.394536598893808</v>
+        <v>5.394536598893828</v>
       </c>
       <c r="H85">
-        <v>59.34982077019289</v>
+        <v>59.34982077019111</v>
       </c>
       <c r="I85">
-        <v>2.22198802113983E-08</v>
+        <v>2.221988021139702E-08</v>
       </c>
       <c r="J85">
-        <v>9.88382059803069E-09</v>
+        <v>9.883820598030524E-09</v>
       </c>
       <c r="K85">
-        <v>9.944683651597806E-05</v>
+        <v>9.944683651597962E-05</v>
       </c>
       <c r="L85">
-        <v>0.04178708643283209</v>
+        <v>0.04178708643283258</v>
       </c>
       <c r="M85">
-        <v>353.7812154528527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.04178708643283258</v>
+      </c>
+      <c r="N85">
+        <v>353.7812154528575</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>194.3022065434727</v>
+        <v>194.3022065434722</v>
       </c>
       <c r="B86">
-        <v>3658994.686170307</v>
+        <v>3658994.686170252</v>
       </c>
       <c r="C86">
-        <v>3636.232191034646</v>
+        <v>3636.232191034575</v>
       </c>
       <c r="D86">
-        <v>18971.08683024681</v>
+        <v>18971.08683024691</v>
       </c>
       <c r="E86">
-        <v>4832.255777933077</v>
+        <v>4832.255777933143</v>
       </c>
       <c r="F86">
-        <v>4018.86803559286</v>
+        <v>4018.868035592917</v>
       </c>
       <c r="G86">
-        <v>5.368314333346246</v>
+        <v>5.368314333346245</v>
       </c>
       <c r="H86">
-        <v>62.47243704609046</v>
+        <v>62.47243704608962</v>
       </c>
       <c r="I86">
-        <v>2.462126213952103E-08</v>
+        <v>2.462126213952018E-08</v>
       </c>
       <c r="J86">
-        <v>1.024920909099888E-08</v>
+        <v>1.024920909099875E-08</v>
       </c>
       <c r="K86">
-        <v>9.63107731619647E-05</v>
+        <v>9.631077316196585E-05</v>
       </c>
       <c r="L86">
-        <v>0.04080437475921592</v>
+        <v>0.04080437475921628</v>
       </c>
       <c r="M86">
-        <v>345.3018626155881</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.04080437475921628</v>
+      </c>
+      <c r="N86">
+        <v>345.3018626155914</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>195.8085856556455</v>
+        <v>195.8085856556449</v>
       </c>
       <c r="B87">
-        <v>3830413.777502572</v>
+        <v>3830413.77750251</v>
       </c>
       <c r="C87">
-        <v>3862.830203727381</v>
+        <v>3862.830203727296</v>
       </c>
       <c r="D87">
-        <v>18686.86239965976</v>
+        <v>18686.86239965988</v>
       </c>
       <c r="E87">
-        <v>4653.730018720845</v>
+        <v>4653.730018720915</v>
       </c>
       <c r="F87">
-        <v>3867.100871968493</v>
+        <v>3867.100871968554</v>
       </c>
       <c r="G87">
-        <v>5.346381554754168</v>
+        <v>5.346381554754188</v>
       </c>
       <c r="H87">
-        <v>66.00503683053982</v>
+        <v>66.00503683053816</v>
       </c>
       <c r="I87">
-        <v>2.74373226460024E-08</v>
+        <v>2.743732264600109E-08</v>
       </c>
       <c r="J87">
-        <v>1.063493100070497E-08</v>
+        <v>1.063493100070482E-08</v>
       </c>
       <c r="K87">
-        <v>9.320831283921058E-05</v>
+        <v>9.320831283921187E-05</v>
       </c>
       <c r="L87">
-        <v>0.03982962176780468</v>
+        <v>0.03982962176780508</v>
       </c>
       <c r="M87">
-        <v>336.706536173535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.03982962176780508</v>
+      </c>
+      <c r="N87">
+        <v>336.7065361735386</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>197.3149647678182</v>
+        <v>197.3149647678177</v>
       </c>
       <c r="B88">
-        <v>4007703.333620233</v>
+        <v>4007703.333620196</v>
       </c>
       <c r="C88">
-        <v>4105.934504496293</v>
+        <v>4105.934504496262</v>
       </c>
       <c r="D88">
-        <v>18392.98767663526</v>
+        <v>18392.98767663538</v>
       </c>
       <c r="E88">
-        <v>4467.036379531077</v>
+        <v>4467.036379531141</v>
       </c>
       <c r="F88">
-        <v>3708.853576653348</v>
+        <v>3708.853576653411</v>
       </c>
       <c r="G88">
-        <v>5.32924264058927</v>
+        <v>5.329242640589261</v>
       </c>
       <c r="H88">
-        <v>70.04188934548787</v>
+        <v>70.04188934548615</v>
       </c>
       <c r="I88">
-        <v>3.077342032890733E-08</v>
+        <v>3.077342032890581E-08</v>
       </c>
       <c r="J88">
-        <v>1.104308683143945E-08</v>
+        <v>1.104308683143929E-08</v>
       </c>
       <c r="K88">
-        <v>9.013630851203507E-05</v>
+        <v>9.013630851203625E-05</v>
       </c>
       <c r="L88">
-        <v>0.03886392324541694</v>
+        <v>0.03886392324541731</v>
       </c>
       <c r="M88">
-        <v>327.9878137295831</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03886392324541731</v>
+      </c>
+      <c r="N88">
+        <v>327.987813729587</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>198.821343879991</v>
+        <v>198.8213438799904</v>
       </c>
       <c r="B89">
-        <v>4190985.448248262</v>
+        <v>4190985.448248249</v>
       </c>
       <c r="C89">
-        <v>4366.912522207265</v>
+        <v>4366.912522207309</v>
       </c>
       <c r="D89">
-        <v>18088.56969432425</v>
+        <v>18088.5696943244</v>
       </c>
       <c r="E89">
-        <v>4271.741977044693</v>
+        <v>4271.741977044697</v>
       </c>
       <c r="F89">
-        <v>3543.720824851888</v>
+        <v>3543.720824851905</v>
       </c>
       <c r="G89">
-        <v>5.317463763324366</v>
+        <v>5.317463763324356</v>
       </c>
       <c r="H89">
-        <v>74.70902409862965</v>
+        <v>74.70902409862624</v>
       </c>
       <c r="I89">
-        <v>3.477237771770418E-08</v>
+        <v>3.477237771770153E-08</v>
       </c>
       <c r="J89">
-        <v>1.147615883626054E-08</v>
+        <v>1.147615883626034E-08</v>
       </c>
       <c r="K89">
-        <v>8.709130579486035E-05</v>
+        <v>8.709130579486181E-05</v>
       </c>
       <c r="L89">
-        <v>0.03790807349785391</v>
+        <v>0.03790807349785438</v>
       </c>
       <c r="M89">
-        <v>319.1368103133932</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03790807349785438</v>
+      </c>
+      <c r="N89">
+        <v>319.1368103133984</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>200.3277229921637</v>
+        <v>200.3277229921631</v>
       </c>
       <c r="B90">
-        <v>4380365.517243948</v>
+        <v>4380365.517243877</v>
       </c>
       <c r="C90">
-        <v>4647.160483167417</v>
+        <v>4647.160483167317</v>
       </c>
       <c r="D90">
-        <v>17772.51996115711</v>
+        <v>17772.51996115725</v>
       </c>
       <c r="E90">
-        <v>4067.415540743621</v>
+        <v>4067.415540743719</v>
       </c>
       <c r="F90">
-        <v>3371.294313702618</v>
+        <v>3371.294313702705</v>
       </c>
       <c r="G90">
-        <v>5.31168889262513</v>
+        <v>5.31168889262511</v>
       </c>
       <c r="H90">
-        <v>80.1786360053039</v>
+        <v>80.1786360053014</v>
       </c>
       <c r="I90">
-        <v>3.963235931085181E-08</v>
+        <v>3.963235931084946E-08</v>
       </c>
       <c r="J90">
-        <v>1.193713224340194E-08</v>
+        <v>1.193713224340175E-08</v>
       </c>
       <c r="K90">
-        <v>8.406930597643512E-05</v>
+        <v>8.406930597643641E-05</v>
       </c>
       <c r="L90">
-        <v>0.03696244868211515</v>
+        <v>0.03696244868211555</v>
       </c>
       <c r="M90">
-        <v>310.1426507785632</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.03696244868211555</v>
+      </c>
+      <c r="N90">
+        <v>310.1426507785674</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>201.8341021043365</v>
+        <v>201.8341021043359</v>
       </c>
       <c r="B91">
-        <v>4575924.939636447</v>
+        <v>4575924.939636353</v>
       </c>
       <c r="C91">
-        <v>4948.102512274498</v>
+        <v>4948.102512274327</v>
       </c>
       <c r="D91">
-        <v>17443.48186317337</v>
+        <v>17443.48186317345</v>
       </c>
       <c r="E91">
-        <v>3853.605350383532</v>
+        <v>3853.605350383631</v>
       </c>
       <c r="F91">
-        <v>3191.150215254547</v>
+        <v>3191.150215254625</v>
       </c>
       <c r="G91">
-        <v>5.312663435922222</v>
+        <v>5.312663435922224</v>
       </c>
       <c r="H91">
-        <v>86.69211941913686</v>
+        <v>86.69211941913571</v>
       </c>
       <c r="I91">
-        <v>4.563590602691168E-08</v>
+        <v>4.563590602691041E-08</v>
       </c>
       <c r="J91">
-        <v>1.242967102298235E-08</v>
+        <v>1.242967102298222E-08</v>
       </c>
       <c r="K91">
-        <v>8.106542231144936E-05</v>
+        <v>8.106542231145008E-05</v>
       </c>
       <c r="L91">
-        <v>0.0360268623630518</v>
+        <v>0.03602686236305203</v>
       </c>
       <c r="M91">
-        <v>300.9916883562672</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.03602686236305203</v>
+      </c>
+      <c r="N91">
+        <v>300.9916883562691</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>203.3404812165092</v>
+        <v>203.3404812165087</v>
       </c>
       <c r="B92">
-        <v>4777713.358323221</v>
+        <v>4777713.358323013</v>
       </c>
       <c r="C92">
-        <v>5271.232778257618</v>
+        <v>5271.232778257077</v>
       </c>
       <c r="D92">
-        <v>17099.72290317905</v>
+        <v>17099.72290317912</v>
       </c>
       <c r="E92">
-        <v>3629.78437159308</v>
+        <v>3629.784371593329</v>
       </c>
       <c r="F92">
-        <v>3002.812388813841</v>
+        <v>3002.812388814028</v>
       </c>
       <c r="G92">
-        <v>5.321269906953833</v>
+        <v>5.321269906953899</v>
       </c>
       <c r="H92">
-        <v>94.59845117006778</v>
+        <v>94.59845117006722</v>
       </c>
       <c r="I92">
-        <v>5.319909485041235E-08</v>
+        <v>5.319909485041139E-08</v>
       </c>
       <c r="J92">
-        <v>1.295837970611756E-08</v>
+        <v>1.295837970611746E-08</v>
       </c>
       <c r="K92">
-        <v>7.807337920909022E-05</v>
+        <v>7.807337920909073E-05</v>
       </c>
       <c r="L92">
-        <v>0.03510037805344392</v>
+        <v>0.03510037805344409</v>
       </c>
       <c r="M92">
-        <v>291.6663362000169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.03510037805344409</v>
+      </c>
+      <c r="N92">
+        <v>291.6663362000178</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>204.8468603286819</v>
+        <v>204.8468603286814</v>
       </c>
       <c r="B93">
-        <v>4985741.427874191</v>
+        <v>4985741.427874269</v>
       </c>
       <c r="C93">
-        <v>5618.240832417327</v>
+        <v>5618.240832417725</v>
       </c>
       <c r="D93">
-        <v>16738.97007715439</v>
+        <v>16738.9700771547</v>
       </c>
       <c r="E93">
-        <v>3395.242503815924</v>
+        <v>3395.24250381583</v>
       </c>
       <c r="F93">
-        <v>2805.674462690671</v>
+        <v>2805.674462690627</v>
       </c>
       <c r="G93">
-        <v>5.338582978102812</v>
+        <v>5.338582978102732</v>
       </c>
       <c r="H93">
-        <v>104.4213649741061</v>
+        <v>104.4213649740921</v>
       </c>
       <c r="I93">
-        <v>6.295901087792714E-08</v>
+        <v>6.295901087791477E-08</v>
       </c>
       <c r="J93">
-        <v>1.35292061167246E-08</v>
+        <v>1.352920611672415E-08</v>
       </c>
       <c r="K93">
-        <v>7.508476916016696E-05</v>
+        <v>7.50847691601695E-05</v>
       </c>
       <c r="L93">
-        <v>0.03418105160308473</v>
+        <v>0.03418105160308547</v>
       </c>
       <c r="M93">
-        <v>282.1432938065594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.03418105160308547</v>
+      </c>
+      <c r="N93">
+        <v>282.1432938065693</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>206.3532394408547</v>
+        <v>206.3532394408541</v>
       </c>
       <c r="B94">
-        <v>5199975.383104685</v>
+        <v>5199975.383104547</v>
       </c>
       <c r="C94">
-        <v>5991.278063084654</v>
+        <v>5991.27806308428</v>
       </c>
       <c r="D94">
-        <v>16358.14868300393</v>
+        <v>16358.14868300399</v>
       </c>
       <c r="E94">
-        <v>3148.898326237911</v>
+        <v>3148.898326238073</v>
       </c>
       <c r="F94">
-        <v>2598.856977055348</v>
+        <v>2598.85697705547</v>
       </c>
       <c r="G94">
-        <v>5.365956951453485</v>
+        <v>5.365956951453486</v>
       </c>
       <c r="H94">
-        <v>116.9841202080289</v>
+        <v>116.9841202080283</v>
       </c>
       <c r="I94">
-        <v>7.593906804460813E-08</v>
+        <v>7.593906804460715E-08</v>
       </c>
       <c r="J94">
-        <v>1.41500861042123E-08</v>
+        <v>1.41500861042122E-08</v>
       </c>
       <c r="K94">
-        <v>7.208791120130441E-05</v>
+        <v>7.208791120130486E-05</v>
       </c>
       <c r="L94">
-        <v>0.03326555294775857</v>
+        <v>0.03326555294775872</v>
       </c>
       <c r="M94">
-        <v>272.3907790170776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.03326555294775872</v>
+      </c>
+      <c r="N94">
+        <v>272.3907790170783</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>207.8596185530274</v>
+        <v>207.8596185530268</v>
       </c>
       <c r="B95">
-        <v>5420334.665049723</v>
+        <v>5420334.665049592</v>
       </c>
       <c r="C95">
-        <v>6393.453214023908</v>
+        <v>6393.453214023565</v>
       </c>
       <c r="D95">
-        <v>15952.94625667671</v>
+        <v>15952.94625667686</v>
       </c>
       <c r="E95">
-        <v>2888.986515411053</v>
+        <v>2888.98651541123</v>
       </c>
       <c r="F95">
-        <v>2380.96211764096</v>
+        <v>2380.9621176411</v>
       </c>
       <c r="G95">
-        <v>5.405170556525027</v>
+        <v>5.405170556525025</v>
       </c>
       <c r="H95">
-        <v>133.6590652594832</v>
+        <v>133.6590652594784</v>
       </c>
       <c r="I95">
-        <v>9.388583897679586E-08</v>
+        <v>9.38858389767898E-08</v>
       </c>
       <c r="J95">
-        <v>1.483203024406173E-08</v>
+        <v>1.483203024406148E-08</v>
       </c>
       <c r="K95">
-        <v>6.906599891279232E-05</v>
+        <v>6.906599891279335E-05</v>
       </c>
       <c r="L95">
-        <v>0.03234856759908009</v>
+        <v>0.03234856759908042</v>
       </c>
       <c r="M95">
-        <v>262.3639983548046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.03234856759908042</v>
+      </c>
+      <c r="N95">
+        <v>262.3639983548078</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>209.3659976652002</v>
+        <v>209.3659976651996</v>
       </c>
       <c r="B96">
-        <v>5646693.424001787</v>
+        <v>5646693.424001565</v>
       </c>
       <c r="C96">
-        <v>6829.719881872994</v>
+        <v>6829.719881872199</v>
       </c>
       <c r="D96">
-        <v>15517.03268142957</v>
+        <v>15517.03268142952</v>
       </c>
       <c r="E96">
-        <v>2612.531545193011</v>
+        <v>2612.531545193306</v>
       </c>
       <c r="F96">
-        <v>2149.651880222505</v>
+        <v>2149.651880222722</v>
       </c>
       <c r="G96">
-        <v>5.458681333878138</v>
+        <v>5.458681333878212</v>
       </c>
       <c r="H96">
-        <v>156.9167114376671</v>
+        <v>156.9167114376803</v>
       </c>
       <c r="I96">
-        <v>1.200249023791091E-07</v>
+        <v>1.200249023791208E-07</v>
       </c>
       <c r="J96">
-        <v>1.559108454838674E-08</v>
+        <v>1.559108454838677E-08</v>
       </c>
       <c r="K96">
-        <v>6.599385597121949E-05</v>
+        <v>6.599385597121909E-05</v>
       </c>
       <c r="L96">
-        <v>0.03142176592698939</v>
+        <v>0.03142176592698934</v>
       </c>
       <c r="M96">
-        <v>251.9971819739515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.03142176592698934</v>
+      </c>
+      <c r="N96">
+        <v>251.9971819739484</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>210.872376777373</v>
+        <v>210.8723767773724</v>
       </c>
       <c r="B97">
-        <v>5878885.93932488</v>
+        <v>5878885.939324821</v>
       </c>
       <c r="C97">
-        <v>7308.541879034598</v>
+        <v>7308.541879034616</v>
       </c>
       <c r="D97">
-        <v>15040.52851517508</v>
+        <v>15040.52851517548</v>
       </c>
       <c r="E97">
-        <v>2314.382819926941</v>
+        <v>2314.382819927021</v>
       </c>
       <c r="F97">
-        <v>1900.866845168736</v>
+        <v>1900.866845168812</v>
       </c>
       <c r="G97">
-        <v>5.530112652420592</v>
+        <v>5.530112652420452</v>
       </c>
       <c r="H97">
-        <v>191.6984879154799</v>
+        <v>191.6984879154353</v>
       </c>
       <c r="I97">
-        <v>1.609915053790953E-07</v>
+        <v>1.609915053790449E-07</v>
       </c>
       <c r="J97">
-        <v>1.64522102652742E-08</v>
+        <v>1.64522102652735E-08</v>
       </c>
       <c r="K97">
-        <v>6.283163870037733E-05</v>
+        <v>6.283163870037995E-05</v>
       </c>
       <c r="L97">
-        <v>0.03047184038870776</v>
+        <v>0.0304718403887085</v>
       </c>
       <c r="M97">
-        <v>241.1880985050967</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.0304718403887085</v>
+      </c>
+      <c r="N97">
+        <v>241.188098505107</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>212.3787558895457</v>
+        <v>212.3787558895451</v>
       </c>
       <c r="B98">
-        <v>6116715.152468184</v>
+        <v>6116715.152468354</v>
       </c>
       <c r="C98">
-        <v>7845.454051637176</v>
+        <v>7845.45405163884</v>
       </c>
       <c r="D98">
-        <v>14506.57403739864</v>
+        <v>14506.57403739958</v>
       </c>
       <c r="E98">
-        <v>1985.150948972197</v>
+        <v>1985.150948971871</v>
       </c>
       <c r="F98">
-        <v>1627.151324605337</v>
+        <v>1627.151324605135</v>
       </c>
       <c r="G98">
-        <v>5.625310920540674</v>
+        <v>5.625310920540289</v>
       </c>
       <c r="H98">
-        <v>249.5352356125875</v>
+        <v>249.5352356124019</v>
       </c>
       <c r="I98">
-        <v>2.327625812701902E-07</v>
+        <v>2.327625812699716E-07</v>
       </c>
       <c r="J98">
-        <v>1.745803138034413E-08</v>
+        <v>1.745803138034246E-08</v>
       </c>
       <c r="K98">
-        <v>5.951079533745671E-05</v>
+        <v>5.951079533746256E-05</v>
       </c>
       <c r="L98">
-        <v>0.02947624132704281</v>
+        <v>0.02947624132704434</v>
       </c>
       <c r="M98">
-        <v>229.7634891749634</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02947624132704434</v>
+      </c>
+      <c r="N98">
+        <v>229.7634891749875</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>213.8851350017184</v>
+        <v>213.8851350017179</v>
       </c>
       <c r="B99">
-        <v>6359962.937283628</v>
+        <v>6359962.937283692</v>
       </c>
       <c r="C99">
-        <v>8472.551791637999</v>
+        <v>8472.551791639344</v>
       </c>
       <c r="D99">
-        <v>13881.94014571744</v>
+        <v>13881.9401457186</v>
       </c>
       <c r="E99">
-        <v>1605.666844093313</v>
+        <v>1605.666844093153</v>
       </c>
       <c r="F99">
-        <v>1313.158441153276</v>
+        <v>1313.158441153196</v>
       </c>
       <c r="G99">
-        <v>5.75513485196936</v>
+        <v>5.755134851968916</v>
       </c>
       <c r="H99">
-        <v>365.0213765603503</v>
+        <v>365.0213765599203</v>
       </c>
       <c r="I99">
-        <v>3.850516677215605E-07</v>
+        <v>3.850516677210152E-07</v>
       </c>
       <c r="J99">
-        <v>1.869292360553925E-08</v>
+        <v>1.869292360553705E-08</v>
       </c>
       <c r="K99">
-        <v>5.589565474831379E-05</v>
+        <v>5.589565474832042E-05</v>
       </c>
       <c r="L99">
-        <v>0.02839187838411118</v>
+        <v>0.02839187838411292</v>
       </c>
       <c r="M99">
-        <v>217.3844024483022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02839187838411292</v>
+      </c>
+      <c r="N99">
+        <v>217.3844024483286</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>215.3915141138912</v>
+        <v>215.3915141138906</v>
       </c>
       <c r="B100">
-        <v>6608400.610928169</v>
+        <v>6608400.610927996</v>
       </c>
       <c r="C100">
-        <v>9275.45514707361</v>
+        <v>9275.455147071816</v>
       </c>
       <c r="D100">
-        <v>13080.12238704731</v>
+        <v>13080.12238704709</v>
       </c>
       <c r="E100">
-        <v>1125.281118697731</v>
+        <v>1125.281118698228</v>
       </c>
       <c r="F100">
-        <v>918.0447353885553</v>
+        <v>918.0447353889293</v>
       </c>
       <c r="G100">
-        <v>5.945952748840519</v>
+        <v>5.945952748840682</v>
       </c>
       <c r="H100">
-        <v>711.0934574441028</v>
+        <v>711.0934574445165</v>
       </c>
       <c r="I100">
-        <v>8.782698707568508E-07</v>
+        <v>8.782698707574016E-07</v>
       </c>
       <c r="J100">
-        <v>2.037837391994051E-08</v>
+        <v>2.03783739199409E-08</v>
       </c>
       <c r="K100">
-        <v>5.163214643423405E-05</v>
+        <v>5.163214643423286E-05</v>
       </c>
       <c r="L100">
-        <v>0.02711203321468774</v>
+        <v>0.02711203321468752</v>
       </c>
       <c r="M100">
-        <v>203.1730189426217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.02711203321468752</v>
+      </c>
+      <c r="N100">
+        <v>203.1730189426162</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>216.8978932260639</v>
+        <v>216.8978932260633</v>
       </c>
       <c r="B101">
-        <v>6861797.049420283</v>
+        <v>6861797.048724029</v>
       </c>
       <c r="C101">
-        <v>11216.20221883628</v>
+        <v>11216.31660237207</v>
       </c>
       <c r="D101">
-        <v>11221.27057161238</v>
+        <v>11221.16069393789</v>
       </c>
       <c r="E101">
-        <v>1.491896671050114</v>
+        <v>1.425884063336997</v>
       </c>
       <c r="F101">
-        <v>1.215573795777269</v>
+        <v>1.161787851989361</v>
       </c>
       <c r="G101">
-        <v>6.433338743807448</v>
+        <v>6.433367006697958</v>
       </c>
       <c r="H101">
-        <v>7756907.179137198</v>
+        <v>8122761.067120456</v>
       </c>
       <c r="I101">
-        <v>0.01374540745245032</v>
+        <v>0.01439401122847218</v>
       </c>
       <c r="J101">
-        <v>2.481199449295512E-08</v>
+        <v>2.48122825209372E-08</v>
       </c>
       <c r="K101">
-        <v>4.309693361274667E-05</v>
+        <v>4.309647709441853E-05</v>
       </c>
       <c r="L101">
-        <v>0.02461339107743133</v>
+        <v>0.02461326332564508</v>
       </c>
       <c r="M101">
-        <v>178.172022599027</v>
+        <v>0.02461326332564508</v>
+      </c>
+      <c r="N101">
+        <v>178.1708771242206</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
